--- a/American_Healthcare_Class_Cleaned.xlsx
+++ b/American_Healthcare_Class_Cleaned.xlsx
@@ -656,7 +656,11 @@
           <t>Week 7 (10/16)</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>10/16</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
@@ -862,7 +866,11 @@
           <t>Week 7 (10/16)</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>10/16</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr">
         <is>
           <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
@@ -1068,7 +1076,11 @@
           <t>Week 7 (10/16)</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>10/16</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr">
         <is>
           <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
@@ -1274,7 +1286,11 @@
           <t>Week 7 (10/16)</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>10/16</t>
+        </is>
+      </c>
       <c r="D29" t="inlineStr">
         <is>
           <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
@@ -1480,7 +1496,11 @@
           <t>Week 7 (10/16)</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr"/>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>10/16</t>
+        </is>
+      </c>
       <c r="D36" t="inlineStr">
         <is>
           <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
@@ -1686,7 +1706,11 @@
           <t>Week 7 (10/16)</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr"/>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>10/16</t>
+        </is>
+      </c>
       <c r="D43" t="inlineStr">
         <is>
           <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
@@ -1892,7 +1916,11 @@
           <t>Week 7 (10/16)</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr"/>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>10/16</t>
+        </is>
+      </c>
       <c r="D50" t="inlineStr">
         <is>
           <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
@@ -2098,7 +2126,11 @@
           <t>Week 7 (10/16)</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr"/>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>10/16</t>
+        </is>
+      </c>
       <c r="D57" t="inlineStr">
         <is>
           <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
@@ -2304,7 +2336,11 @@
           <t>Week 7 (10/16)</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr"/>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>10/16</t>
+        </is>
+      </c>
       <c r="D64" t="inlineStr">
         <is>
           <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
@@ -2510,7 +2546,11 @@
           <t>Week 7 (10/16)</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr"/>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>10/16</t>
+        </is>
+      </c>
       <c r="D71" t="inlineStr">
         <is>
           <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
@@ -2716,7 +2756,11 @@
           <t>Week 7 (10/16)</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr"/>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>10/16</t>
+        </is>
+      </c>
       <c r="D78" t="inlineStr">
         <is>
           <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
@@ -2922,7 +2966,11 @@
           <t>Week 7 (10/16)</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr"/>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>10/16</t>
+        </is>
+      </c>
       <c r="D85" t="inlineStr">
         <is>
           <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
@@ -3128,7 +3176,11 @@
           <t>Week 7 (10/16)</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr"/>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>10/16</t>
+        </is>
+      </c>
       <c r="D92" t="inlineStr">
         <is>
           <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
@@ -3334,7 +3386,11 @@
           <t>Week 7 (10/16)</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr"/>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>10/16</t>
+        </is>
+      </c>
       <c r="D99" t="inlineStr">
         <is>
           <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
@@ -3540,7 +3596,11 @@
           <t>Week 7 (10/16)</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr"/>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>10/16</t>
+        </is>
+      </c>
       <c r="D106" t="inlineStr">
         <is>
           <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
@@ -3746,7 +3806,11 @@
           <t>Week 7 (10/16)</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr"/>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>10/16</t>
+        </is>
+      </c>
       <c r="D113" t="inlineStr">
         <is>
           <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
@@ -3952,7 +4016,11 @@
           <t>Week 7 (10/16)</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr"/>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>10/16</t>
+        </is>
+      </c>
       <c r="D120" t="inlineStr">
         <is>
           <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
@@ -4158,7 +4226,11 @@
           <t>Week 7 (10/16)</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr"/>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>10/16</t>
+        </is>
+      </c>
       <c r="D127" t="inlineStr">
         <is>
           <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
@@ -4364,7 +4436,11 @@
           <t>Week 7 (10/16)</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr"/>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>10/16</t>
+        </is>
+      </c>
       <c r="D134" t="inlineStr">
         <is>
           <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
@@ -4570,7 +4646,11 @@
           <t>Week 7 (10/16)</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr"/>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>10/16</t>
+        </is>
+      </c>
       <c r="D141" t="inlineStr">
         <is>
           <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>

--- a/American_Healthcare_Class_Cleaned.xlsx
+++ b/American_Healthcare_Class_Cleaned.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F141"/>
+  <dimension ref="A1:F161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -678,22 +678,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Alisha Ealias</t>
+          <t>Akshay Venkatesh</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Week 1 (9/4)</t>
+          <t>Week 8 (10/23)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>9/4</t>
+          <t>10/23</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>U.S. Healthcare Ecosystem Overview and History</t>
+          <t>Government: Policies and regulations, Social Determinants of Health</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -713,21 +713,21 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Week 2 (9/11)</t>
+          <t>Week 1 (9/4)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>9/11</t>
+          <t>9/4</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
+          <t>U.S. Healthcare Ecosystem Overview and History</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -743,21 +743,21 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Week 3 (9/18)</t>
+          <t>Week 2 (9/11)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>9/18</t>
+          <t>9/11</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
+          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -773,21 +773,21 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Week 4 (9/25)</t>
+          <t>Week 3 (9/18)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>9/25</t>
+          <t>9/18</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Payer: History, Overview, ACA and Services</t>
+          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -803,21 +803,21 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Week 5 (10/2)</t>
+          <t>Week 4 (9/25)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>10/2</t>
+          <t>9/25</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Payer: Medicare and Medicaid</t>
+          <t>Payer: History, Overview, ACA and Services</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -833,21 +833,21 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Week 6 (10/9)</t>
+          <t>Week 5 (10/2)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>10/9</t>
+          <t>10/2</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Provider: History, Types and Challenges</t>
+          <t>Payer: Medicare and Medicaid</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -863,21 +863,21 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Week 7 (10/16)</t>
+          <t>Week 6 (10/9)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>10/16</t>
+          <t>10/9</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
+          <t>Provider: History, Types and Challenges</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -888,60 +888,60 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Anika Rahman Maria</t>
+          <t>Alisha Ealias</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Week 1 (9/4)</t>
+          <t>Week 7 (10/16)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>9/4</t>
+          <t>10/16</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>U.S. Healthcare Ecosystem Overview and History</t>
+          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Anika Rahman Maria</t>
+          <t>Alisha Ealias</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Week 2 (9/11)</t>
+          <t>Week 8 (10/23)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>9/11</t>
+          <t>10/23</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
+          <t>Government: Policies and regulations, Social Determinants of Health</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
     </row>
@@ -953,17 +953,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Week 3 (9/18)</t>
+          <t>Week 1 (9/4)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>9/18</t>
+          <t>9/4</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
+          <t>U.S. Healthcare Ecosystem Overview and History</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -983,17 +983,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Week 4 (9/25)</t>
+          <t>Week 2 (9/11)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>9/25</t>
+          <t>9/11</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Payer: History, Overview, ACA and Services</t>
+          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -1001,7 +1001,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -1013,25 +1013,25 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Week 5 (10/2)</t>
+          <t>Week 3 (9/18)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>10/2</t>
+          <t>9/18</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Payer: Medicare and Medicaid</t>
+          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -1043,17 +1043,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Week 6 (10/9)</t>
+          <t>Week 4 (9/25)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>10/9</t>
+          <t>9/25</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Provider: History, Types and Challenges</t>
+          <t>Payer: History, Overview, ACA and Services</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -1073,17 +1073,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Week 7 (10/16)</t>
+          <t>Week 5 (10/2)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>10/16</t>
+          <t>10/2</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
+          <t>Payer: Medicare and Medicaid</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1098,26 +1098,26 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Astha Gungun Patel</t>
+          <t>Anika Rahman Maria</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Week 1 (9/4)</t>
+          <t>Week 6 (10/9)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>9/4</t>
+          <t>10/9</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>U.S. Healthcare Ecosystem Overview and History</t>
+          <t>Provider: History, Types and Challenges</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1128,26 +1128,26 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Astha Gungun Patel</t>
+          <t>Anika Rahman Maria</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Week 2 (9/11)</t>
+          <t>Week 7 (10/16)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>9/11</t>
+          <t>10/16</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
+          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1158,30 +1158,30 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Astha Gungun Patel</t>
+          <t>Anika Rahman Maria</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Week 3 (9/18)</t>
+          <t>Week 8 (10/23)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>9/18</t>
+          <t>10/23</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
+          <t>Government: Policies and regulations, Social Determinants of Health</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
     </row>
@@ -1193,17 +1193,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Week 4 (9/25)</t>
+          <t>Week 1 (9/4)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>9/25</t>
+          <t>9/4</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Payer: History, Overview, ACA and Services</t>
+          <t>U.S. Healthcare Ecosystem Overview and History</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -1223,21 +1223,21 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Week 5 (10/2)</t>
+          <t>Week 2 (9/11)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>10/2</t>
+          <t>9/11</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Payer: Medicare and Medicaid</t>
+          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1253,25 +1253,25 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Week 6 (10/9)</t>
+          <t>Week 3 (9/18)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>10/9</t>
+          <t>9/18</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Provider: History, Types and Challenges</t>
+          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -1283,21 +1283,21 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Week 7 (10/16)</t>
+          <t>Week 4 (9/25)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>10/16</t>
+          <t>9/25</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
+          <t>Payer: History, Overview, ACA and Services</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1308,26 +1308,26 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Bhavishya Teki</t>
+          <t>Astha Gungun Patel</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Week 1 (9/4)</t>
+          <t>Week 5 (10/2)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>9/4</t>
+          <t>10/2</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>U.S. Healthcare Ecosystem Overview and History</t>
+          <t>Payer: Medicare and Medicaid</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1338,26 +1338,26 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Bhavishya Teki</t>
+          <t>Astha Gungun Patel</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Week 2 (9/11)</t>
+          <t>Week 6 (10/9)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>9/11</t>
+          <t>10/9</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
+          <t>Provider: History, Types and Challenges</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1368,26 +1368,26 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Bhavishya Teki</t>
+          <t>Astha Gungun Patel</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Week 3 (9/18)</t>
+          <t>Week 7 (10/16)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>9/18</t>
+          <t>10/16</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
+          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1398,22 +1398,22 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Bhavishya Teki</t>
+          <t>Astha Gungun Patel</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Week 4 (9/25)</t>
+          <t>Week 8 (10/23)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>9/25</t>
+          <t>10/23</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Payer: History, Overview, ACA and Services</t>
+          <t>Government: Policies and regulations, Social Determinants of Health</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -1433,21 +1433,21 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Week 5 (10/2)</t>
+          <t>Week 1 (9/4)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>10/2</t>
+          <t>9/4</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Payer: Medicare and Medicaid</t>
+          <t>U.S. Healthcare Ecosystem Overview and History</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1463,17 +1463,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Week 6 (10/9)</t>
+          <t>Week 2 (9/11)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>10/9</t>
+          <t>9/11</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Provider: History, Types and Challenges</t>
+          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -1493,17 +1493,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Week 7 (10/16)</t>
+          <t>Week 3 (9/18)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>10/16</t>
+          <t>9/18</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
+          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -1518,22 +1518,22 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Bilegt Batkhorol</t>
+          <t>Bhavishya Teki</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Week 1 (9/4)</t>
+          <t>Week 4 (9/25)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>9/4</t>
+          <t>9/25</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>U.S. Healthcare Ecosystem Overview and History</t>
+          <t>Payer: History, Overview, ACA and Services</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -1548,22 +1548,22 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Bilegt Batkhorol</t>
+          <t>Bhavishya Teki</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Week 2 (9/11)</t>
+          <t>Week 5 (10/2)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>9/11</t>
+          <t>10/2</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
+          <t>Payer: Medicare and Medicaid</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -1578,22 +1578,22 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Bilegt Batkhorol</t>
+          <t>Bhavishya Teki</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Week 3 (9/18)</t>
+          <t>Week 6 (10/9)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>9/18</t>
+          <t>10/9</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
+          <t>Provider: History, Types and Challenges</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -1608,26 +1608,26 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Bilegt Batkhorol</t>
+          <t>Bhavishya Teki</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Week 4 (9/25)</t>
+          <t>Week 7 (10/16)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>9/25</t>
+          <t>10/16</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Payer: History, Overview, ACA and Services</t>
+          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1638,22 +1638,22 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Bilegt Batkhorol</t>
+          <t>Bhavishya Teki</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Week 5 (10/2)</t>
+          <t>Week 8 (10/23)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>10/2</t>
+          <t>10/23</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Payer: Medicare and Medicaid</t>
+          <t>Government: Policies and regulations, Social Determinants of Health</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -1661,7 +1661,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Excused</t>
         </is>
       </c>
     </row>
@@ -1673,21 +1673,21 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Week 6 (10/9)</t>
+          <t>Week 1 (9/4)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>10/9</t>
+          <t>9/4</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Provider: History, Types and Challenges</t>
+          <t>U.S. Healthcare Ecosystem Overview and History</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1703,21 +1703,21 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Week 7 (10/16)</t>
+          <t>Week 2 (9/11)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>10/16</t>
+          <t>9/11</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
+          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1728,26 +1728,26 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Deepika Joyce Chintha</t>
+          <t>Bilegt Batkhorol</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Week 1 (9/4)</t>
+          <t>Week 3 (9/18)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>9/4</t>
+          <t>9/18</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>U.S. Healthcare Ecosystem Overview and History</t>
+          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1758,22 +1758,22 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Deepika Joyce Chintha</t>
+          <t>Bilegt Batkhorol</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Week 2 (9/11)</t>
+          <t>Week 4 (9/25)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>9/11</t>
+          <t>9/25</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
+          <t>Payer: History, Overview, ACA and Services</t>
         </is>
       </c>
       <c r="E45" t="n">
@@ -1781,29 +1781,29 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Excused</t>
+          <t>Present</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Deepika Joyce Chintha</t>
+          <t>Bilegt Batkhorol</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Week 3 (9/18)</t>
+          <t>Week 5 (10/2)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>9/18</t>
+          <t>10/2</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
+          <t>Payer: Medicare and Medicaid</t>
         </is>
       </c>
       <c r="E46" t="n">
@@ -1818,22 +1818,22 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Deepika Joyce Chintha</t>
+          <t>Bilegt Batkhorol</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Week 4 (9/25)</t>
+          <t>Week 6 (10/9)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>9/25</t>
+          <t>10/9</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Payer: History, Overview, ACA and Services</t>
+          <t>Provider: History, Types and Challenges</t>
         </is>
       </c>
       <c r="E47" t="n">
@@ -1848,22 +1848,22 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Deepika Joyce Chintha</t>
+          <t>Bilegt Batkhorol</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Week 5 (10/2)</t>
+          <t>Week 7 (10/16)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>10/2</t>
+          <t>10/16</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Payer: Medicare and Medicaid</t>
+          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -1878,22 +1878,22 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Deepika Joyce Chintha</t>
+          <t>Bilegt Batkhorol</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Week 6 (10/9)</t>
+          <t>Week 8 (10/23)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>10/9</t>
+          <t>10/23</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Provider: History, Types and Challenges</t>
+          <t>Government: Policies and regulations, Social Determinants of Health</t>
         </is>
       </c>
       <c r="E49" t="n">
@@ -1913,21 +1913,21 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Week 7 (10/16)</t>
+          <t>Week 1 (9/4)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>10/16</t>
+          <t>9/4</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
+          <t>U.S. Healthcare Ecosystem Overview and History</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -1938,52 +1938,52 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Julia Key</t>
+          <t>Deepika Joyce Chintha</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Week 1 (9/4)</t>
+          <t>Week 2 (9/11)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>9/4</t>
+          <t>9/11</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>U.S. Healthcare Ecosystem Overview and History</t>
+          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Excused</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Julia Key</t>
+          <t>Deepika Joyce Chintha</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Week 2 (9/11)</t>
+          <t>Week 3 (9/18)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>9/11</t>
+          <t>9/18</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
+          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -1991,33 +1991,33 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Excused</t>
+          <t>Present</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Julia Key</t>
+          <t>Deepika Joyce Chintha</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Week 3 (9/18)</t>
+          <t>Week 4 (9/25)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>9/18</t>
+          <t>9/25</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
+          <t>Payer: History, Overview, ACA and Services</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -2028,26 +2028,26 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Julia Key</t>
+          <t>Deepika Joyce Chintha</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Week 4 (9/25)</t>
+          <t>Week 5 (10/2)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>9/25</t>
+          <t>10/2</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Payer: History, Overview, ACA and Services</t>
+          <t>Payer: Medicare and Medicaid</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -2058,26 +2058,26 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Julia Key</t>
+          <t>Deepika Joyce Chintha</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Week 5 (10/2)</t>
+          <t>Week 6 (10/9)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>10/2</t>
+          <t>10/9</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Payer: Medicare and Medicaid</t>
+          <t>Provider: History, Types and Challenges</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -2088,26 +2088,26 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Julia Key</t>
+          <t>Deepika Joyce Chintha</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Week 6 (10/9)</t>
+          <t>Week 7 (10/16)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>10/9</t>
+          <t>10/16</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Provider: History, Types and Challenges</t>
+          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -2118,26 +2118,26 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Julia Key</t>
+          <t>Deepika Joyce Chintha</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Week 7 (10/16)</t>
+          <t>Week 8 (10/23)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>10/16</t>
+          <t>10/23</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
+          <t>Government: Policies and regulations, Social Determinants of Health</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -2148,7 +2148,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Kai Ern Caius Lee</t>
+          <t>Julia Key</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Kai Ern Caius Lee</t>
+          <t>Julia Key</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2201,14 +2201,14 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Excused</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Kai Ern Caius Lee</t>
+          <t>Julia Key</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2227,7 +2227,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Kai Ern Caius Lee</t>
+          <t>Julia Key</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Kai Ern Caius Lee</t>
+          <t>Julia Key</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -2298,7 +2298,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Kai Ern Caius Lee</t>
+          <t>Julia Key</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -2328,7 +2328,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Kai Ern Caius Lee</t>
+          <t>Julia Key</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2347,7 +2347,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -2358,26 +2358,26 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Kirti Gautam</t>
+          <t>Julia Key</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Week 1 (9/4)</t>
+          <t>Week 8 (10/23)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>9/4</t>
+          <t>10/23</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>U.S. Healthcare Ecosystem Overview and History</t>
+          <t>Government: Policies and regulations, Social Determinants of Health</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -2388,26 +2388,26 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Kirti Gautam</t>
+          <t>Kai Ern Caius Lee</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Week 2 (9/11)</t>
+          <t>Week 1 (9/4)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>9/11</t>
+          <t>9/4</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
+          <t>U.S. Healthcare Ecosystem Overview and History</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -2418,26 +2418,26 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Kirti Gautam</t>
+          <t>Kai Ern Caius Lee</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Week 3 (9/18)</t>
+          <t>Week 2 (9/11)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>9/18</t>
+          <t>9/11</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
+          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -2448,22 +2448,22 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Kirti Gautam</t>
+          <t>Kai Ern Caius Lee</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Week 4 (9/25)</t>
+          <t>Week 3 (9/18)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>9/25</t>
+          <t>9/18</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Payer: History, Overview, ACA and Services</t>
+          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
         </is>
       </c>
       <c r="E68" t="n">
@@ -2478,26 +2478,26 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Kirti Gautam</t>
+          <t>Kai Ern Caius Lee</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Week 5 (10/2)</t>
+          <t>Week 4 (9/25)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>10/2</t>
+          <t>9/25</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Payer: Medicare and Medicaid</t>
+          <t>Payer: History, Overview, ACA and Services</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -2508,26 +2508,26 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Kirti Gautam</t>
+          <t>Kai Ern Caius Lee</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Week 6 (10/9)</t>
+          <t>Week 5 (10/2)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>10/9</t>
+          <t>10/2</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Provider: History, Types and Challenges</t>
+          <t>Payer: Medicare and Medicaid</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -2538,26 +2538,26 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Kirti Gautam</t>
+          <t>Kai Ern Caius Lee</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Week 7 (10/16)</t>
+          <t>Week 6 (10/9)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>10/16</t>
+          <t>10/9</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
+          <t>Provider: History, Types and Challenges</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -2568,26 +2568,26 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Mary O'Reilly</t>
+          <t>Kai Ern Caius Lee</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Week 1 (9/4)</t>
+          <t>Week 7 (10/16)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>9/4</t>
+          <t>10/16</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>U.S. Healthcare Ecosystem Overview and History</t>
+          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -2598,26 +2598,26 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Mary O'Reilly</t>
+          <t>Kai Ern Caius Lee</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Week 2 (9/11)</t>
+          <t>Week 8 (10/23)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>9/11</t>
+          <t>10/23</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
+          <t>Government: Policies and regulations, Social Determinants of Health</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -2628,26 +2628,26 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Mary O'Reilly</t>
+          <t>Kirti Gautam</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Week 3 (9/18)</t>
+          <t>Week 1 (9/4)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>9/18</t>
+          <t>9/4</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
+          <t>U.S. Healthcare Ecosystem Overview and History</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -2658,22 +2658,22 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Mary O'Reilly</t>
+          <t>Kirti Gautam</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Week 4 (9/25)</t>
+          <t>Week 2 (9/11)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>9/25</t>
+          <t>9/11</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Payer: History, Overview, ACA and Services</t>
+          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
         </is>
       </c>
       <c r="E75" t="n">
@@ -2688,26 +2688,26 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Mary O'Reilly</t>
+          <t>Kirti Gautam</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Week 5 (10/2)</t>
+          <t>Week 3 (9/18)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>10/2</t>
+          <t>9/18</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Payer: Medicare and Medicaid</t>
+          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -2718,26 +2718,26 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Mary O'Reilly</t>
+          <t>Kirti Gautam</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Week 6 (10/9)</t>
+          <t>Week 4 (9/25)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>10/9</t>
+          <t>9/25</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Provider: History, Types and Challenges</t>
+          <t>Payer: History, Overview, ACA and Services</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -2748,26 +2748,26 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Mary O'Reilly</t>
+          <t>Kirti Gautam</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Week 7 (10/16)</t>
+          <t>Week 5 (10/2)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>10/16</t>
+          <t>10/2</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
+          <t>Payer: Medicare and Medicaid</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -2778,22 +2778,22 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Michael Madden</t>
+          <t>Kirti Gautam</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Week 1 (9/4)</t>
+          <t>Week 6 (10/9)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>9/4</t>
+          <t>10/9</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>U.S. Healthcare Ecosystem Overview and History</t>
+          <t>Provider: History, Types and Challenges</t>
         </is>
       </c>
       <c r="E79" t="n">
@@ -2808,22 +2808,22 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Michael Madden</t>
+          <t>Kirti Gautam</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Week 2 (9/11)</t>
+          <t>Week 7 (10/16)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>9/11</t>
+          <t>10/16</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
+          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
         </is>
       </c>
       <c r="E80" t="n">
@@ -2838,26 +2838,26 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Michael Madden</t>
+          <t>Kirti Gautam</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Week 3 (9/18)</t>
+          <t>Week 8 (10/23)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>9/18</t>
+          <t>10/23</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
+          <t>Government: Policies and regulations, Social Determinants of Health</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -2868,26 +2868,26 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Michael Madden</t>
+          <t>Mary O'Reilly</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Week 4 (9/25)</t>
+          <t>Week 1 (9/4)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>9/25</t>
+          <t>9/4</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Payer: History, Overview, ACA and Services</t>
+          <t>U.S. Healthcare Ecosystem Overview and History</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -2898,56 +2898,56 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Michael Madden</t>
+          <t>Mary O'Reilly</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Week 5 (10/2)</t>
+          <t>Week 2 (9/11)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>10/2</t>
+          <t>9/11</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Payer: Medicare and Medicaid</t>
+          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Excused</t>
+          <t>Present</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Michael Madden</t>
+          <t>Mary O'Reilly</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Week 6 (10/9)</t>
+          <t>Week 3 (9/18)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>10/9</t>
+          <t>9/18</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Provider: History, Types and Challenges</t>
+          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -2958,26 +2958,26 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Michael Madden</t>
+          <t>Mary O'Reilly</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Week 7 (10/16)</t>
+          <t>Week 4 (9/25)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>10/16</t>
+          <t>9/25</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
+          <t>Payer: History, Overview, ACA and Services</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -2988,26 +2988,26 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Prakruthi Jayant</t>
+          <t>Mary O'Reilly</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Week 1 (9/4)</t>
+          <t>Week 5 (10/2)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>9/4</t>
+          <t>10/2</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>U.S. Healthcare Ecosystem Overview and History</t>
+          <t>Payer: Medicare and Medicaid</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -3018,26 +3018,26 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Prakruthi Jayant</t>
+          <t>Mary O'Reilly</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Week 2 (9/11)</t>
+          <t>Week 6 (10/9)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>9/11</t>
+          <t>10/9</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
+          <t>Provider: History, Types and Challenges</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -3048,26 +3048,26 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Prakruthi Jayant</t>
+          <t>Mary O'Reilly</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Week 3 (9/18)</t>
+          <t>Week 7 (10/16)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>9/18</t>
+          <t>10/16</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
+          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -3078,26 +3078,26 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Prakruthi Jayant</t>
+          <t>Mary O'Reilly</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Week 4 (9/25)</t>
+          <t>Week 8 (10/23)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>9/25</t>
+          <t>10/23</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Payer: History, Overview, ACA and Services</t>
+          <t>Government: Policies and regulations, Social Determinants of Health</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -3108,26 +3108,26 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Prakruthi Jayant</t>
+          <t>Michael Madden</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Week 5 (10/2)</t>
+          <t>Week 1 (9/4)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>10/2</t>
+          <t>9/4</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Payer: Medicare and Medicaid</t>
+          <t>U.S. Healthcare Ecosystem Overview and History</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -3138,26 +3138,26 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Prakruthi Jayant</t>
+          <t>Michael Madden</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Week 6 (10/9)</t>
+          <t>Week 2 (9/11)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>10/9</t>
+          <t>9/11</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Provider: History, Types and Challenges</t>
+          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -3168,26 +3168,26 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Prakruthi Jayant</t>
+          <t>Michael Madden</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Week 7 (10/16)</t>
+          <t>Week 3 (9/18)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>10/16</t>
+          <t>9/18</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
+          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -3198,26 +3198,26 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Priyanka Umesh Patil</t>
+          <t>Michael Madden</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Week 1 (9/4)</t>
+          <t>Week 4 (9/25)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>9/4</t>
+          <t>9/25</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>U.S. Healthcare Ecosystem Overview and History</t>
+          <t>Payer: History, Overview, ACA and Services</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -3228,56 +3228,56 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Priyanka Umesh Patil</t>
+          <t>Michael Madden</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Week 2 (9/11)</t>
+          <t>Week 5 (10/2)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>9/11</t>
+          <t>10/2</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
+          <t>Payer: Medicare and Medicaid</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Excused</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Priyanka Umesh Patil</t>
+          <t>Michael Madden</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Week 3 (9/18)</t>
+          <t>Week 6 (10/9)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>9/18</t>
+          <t>10/9</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
+          <t>Provider: History, Types and Challenges</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -3288,26 +3288,26 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Priyanka Umesh Patil</t>
+          <t>Michael Madden</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Week 4 (9/25)</t>
+          <t>Week 7 (10/16)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>9/25</t>
+          <t>10/16</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Payer: History, Overview, ACA and Services</t>
+          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -3318,26 +3318,26 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Priyanka Umesh Patil</t>
+          <t>Michael Madden</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Week 5 (10/2)</t>
+          <t>Week 8 (10/23)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>10/2</t>
+          <t>10/23</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Payer: Medicare and Medicaid</t>
+          <t>Government: Policies and regulations, Social Determinants of Health</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -3348,22 +3348,22 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Priyanka Umesh Patil</t>
+          <t>Prakruthi Jayant</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Week 6 (10/9)</t>
+          <t>Week 1 (9/4)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>10/9</t>
+          <t>9/4</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Provider: History, Types and Challenges</t>
+          <t>U.S. Healthcare Ecosystem Overview and History</t>
         </is>
       </c>
       <c r="E98" t="n">
@@ -3378,26 +3378,26 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Priyanka Umesh Patil</t>
+          <t>Prakruthi Jayant</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Week 7 (10/16)</t>
+          <t>Week 2 (9/11)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>10/16</t>
+          <t>9/11</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
+          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -3408,86 +3408,86 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Priyanshi Patel</t>
+          <t>Prakruthi Jayant</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Week 1 (9/4)</t>
+          <t>Week 3 (9/18)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>9/4</t>
+          <t>9/18</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>U.S. Healthcare Ecosystem Overview and History</t>
+          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Excused</t>
+          <t>Present</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Priyanshi Patel</t>
+          <t>Prakruthi Jayant</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Week 2 (9/11)</t>
+          <t>Week 4 (9/25)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>9/11</t>
+          <t>9/25</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
+          <t>Payer: History, Overview, ACA and Services</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Excused</t>
+          <t>Present</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Priyanshi Patel</t>
+          <t>Prakruthi Jayant</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Week 3 (9/18)</t>
+          <t>Week 5 (10/2)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>9/18</t>
+          <t>10/2</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
+          <t>Payer: Medicare and Medicaid</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -3498,26 +3498,26 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Priyanshi Patel</t>
+          <t>Prakruthi Jayant</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Week 4 (9/25)</t>
+          <t>Week 6 (10/9)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>9/25</t>
+          <t>10/9</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Payer: History, Overview, ACA and Services</t>
+          <t>Provider: History, Types and Challenges</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -3528,56 +3528,56 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Priyanshi Patel</t>
+          <t>Prakruthi Jayant</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Week 5 (10/2)</t>
+          <t>Week 7 (10/16)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>10/2</t>
+          <t>10/16</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Payer: Medicare and Medicaid</t>
+          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Excused</t>
+          <t>Present</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Priyanshi Patel</t>
+          <t>Prakruthi Jayant</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Week 6 (10/9)</t>
+          <t>Week 8 (10/23)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>10/9</t>
+          <t>10/23</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Provider: History, Types and Challenges</t>
+          <t>Government: Policies and regulations, Social Determinants of Health</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -3588,26 +3588,26 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Priyanshi Patel</t>
+          <t>Priyanka Umesh Patil</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Week 7 (10/16)</t>
+          <t>Week 1 (9/4)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>10/16</t>
+          <t>9/4</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
+          <t>U.S. Healthcare Ecosystem Overview and History</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -3618,86 +3618,86 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Samwel Gitundu</t>
+          <t>Priyanka Umesh Patil</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Week 1 (9/4)</t>
+          <t>Week 2 (9/11)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>9/4</t>
+          <t>9/11</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>U.S. Healthcare Ecosystem Overview and History</t>
+          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Excused</t>
+          <t>Present</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Samwel Gitundu</t>
+          <t>Priyanka Umesh Patil</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Week 2 (9/11)</t>
+          <t>Week 3 (9/18)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>9/11</t>
+          <t>9/18</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
+          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Excused</t>
+          <t>Present</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Samwel Gitundu</t>
+          <t>Priyanka Umesh Patil</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Week 3 (9/18)</t>
+          <t>Week 4 (9/25)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>9/18</t>
+          <t>9/25</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
+          <t>Payer: History, Overview, ACA and Services</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -3708,26 +3708,26 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Samwel Gitundu</t>
+          <t>Priyanka Umesh Patil</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Week 4 (9/25)</t>
+          <t>Week 5 (10/2)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>9/25</t>
+          <t>10/2</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Payer: History, Overview, ACA and Services</t>
+          <t>Payer: Medicare and Medicaid</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -3738,22 +3738,22 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Samwel Gitundu</t>
+          <t>Priyanka Umesh Patil</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Week 5 (10/2)</t>
+          <t>Week 6 (10/9)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>10/2</t>
+          <t>10/9</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Payer: Medicare and Medicaid</t>
+          <t>Provider: History, Types and Challenges</t>
         </is>
       </c>
       <c r="E111" t="n">
@@ -3768,26 +3768,26 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Samwel Gitundu</t>
+          <t>Priyanka Umesh Patil</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Week 6 (10/9)</t>
+          <t>Week 7 (10/16)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>10/9</t>
+          <t>10/16</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Provider: History, Types and Challenges</t>
+          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -3798,26 +3798,26 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Samwel Gitundu</t>
+          <t>Priyanka Umesh Patil</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Week 7 (10/16)</t>
+          <t>Week 8 (10/23)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>10/16</t>
+          <t>10/23</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
+          <t>Government: Policies and regulations, Social Determinants of Health</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -3828,7 +3828,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Srinidhi Rajaraman</t>
+          <t>Priyanshi Patel</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -3847,18 +3847,18 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Excused</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Srinidhi Rajaraman</t>
+          <t>Priyanshi Patel</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -3881,14 +3881,14 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Excused</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Srinidhi Rajaraman</t>
+          <t>Priyanshi Patel</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Srinidhi Rajaraman</t>
+          <t>Priyanshi Patel</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -3937,7 +3937,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Srinidhi Rajaraman</t>
+          <t>Priyanshi Patel</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -3971,14 +3971,14 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Excused</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Srinidhi Rajaraman</t>
+          <t>Priyanshi Patel</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -4008,7 +4008,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Srinidhi Rajaraman</t>
+          <t>Priyanshi Patel</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -4027,7 +4027,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -4038,22 +4038,22 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Srishti Michael</t>
+          <t>Priyanshi Patel</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Week 1 (9/4)</t>
+          <t>Week 8 (10/23)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>9/4</t>
+          <t>10/23</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>U.S. Healthcare Ecosystem Overview and History</t>
+          <t>Government: Policies and regulations, Social Determinants of Health</t>
         </is>
       </c>
       <c r="E121" t="n">
@@ -4068,22 +4068,22 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Srishti Michael</t>
+          <t>Samwel Gitundu</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Week 2 (9/11)</t>
+          <t>Week 1 (9/4)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>9/11</t>
+          <t>9/4</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
+          <t>U.S. Healthcare Ecosystem Overview and History</t>
         </is>
       </c>
       <c r="E122" t="n">
@@ -4091,29 +4091,29 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Excused</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Srishti Michael</t>
+          <t>Samwel Gitundu</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Week 3 (9/18)</t>
+          <t>Week 2 (9/11)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>9/18</t>
+          <t>9/11</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
+          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
         </is>
       </c>
       <c r="E123" t="n">
@@ -4121,33 +4121,33 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Excused</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Srishti Michael</t>
+          <t>Samwel Gitundu</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Week 4 (9/25)</t>
+          <t>Week 3 (9/18)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>9/25</t>
+          <t>9/18</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Payer: History, Overview, ACA and Services</t>
+          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
@@ -4158,26 +4158,26 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Srishti Michael</t>
+          <t>Samwel Gitundu</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Week 5 (10/2)</t>
+          <t>Week 4 (9/25)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>10/2</t>
+          <t>9/25</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Payer: Medicare and Medicaid</t>
+          <t>Payer: History, Overview, ACA and Services</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -4188,26 +4188,26 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Srishti Michael</t>
+          <t>Samwel Gitundu</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Week 6 (10/9)</t>
+          <t>Week 5 (10/2)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>10/9</t>
+          <t>10/2</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Provider: History, Types and Challenges</t>
+          <t>Payer: Medicare and Medicaid</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
@@ -4218,26 +4218,26 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Srishti Michael</t>
+          <t>Samwel Gitundu</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Week 7 (10/16)</t>
+          <t>Week 6 (10/9)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>10/16</t>
+          <t>10/9</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
+          <t>Provider: History, Types and Challenges</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -4248,26 +4248,26 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Varsha Murli Chhabria</t>
+          <t>Samwel Gitundu</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Week 1 (9/4)</t>
+          <t>Week 7 (10/16)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>9/4</t>
+          <t>10/16</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>U.S. Healthcare Ecosystem Overview and History</t>
+          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
@@ -4278,26 +4278,26 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Varsha Murli Chhabria</t>
+          <t>Samwel Gitundu</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Week 2 (9/11)</t>
+          <t>Week 8 (10/23)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>9/11</t>
+          <t>10/23</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
+          <t>Government: Policies and regulations, Social Determinants of Health</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -4308,22 +4308,22 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Varsha Murli Chhabria</t>
+          <t>Srinidhi Rajaraman</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Week 3 (9/18)</t>
+          <t>Week 1 (9/4)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>9/18</t>
+          <t>9/4</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
+          <t>U.S. Healthcare Ecosystem Overview and History</t>
         </is>
       </c>
       <c r="E130" t="n">
@@ -4338,22 +4338,22 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Varsha Murli Chhabria</t>
+          <t>Srinidhi Rajaraman</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Week 4 (9/25)</t>
+          <t>Week 2 (9/11)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>9/25</t>
+          <t>9/11</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Payer: History, Overview, ACA and Services</t>
+          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
         </is>
       </c>
       <c r="E131" t="n">
@@ -4361,33 +4361,33 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Varsha Murli Chhabria</t>
+          <t>Srinidhi Rajaraman</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Week 5 (10/2)</t>
+          <t>Week 3 (9/18)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>10/2</t>
+          <t>9/18</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Payer: Medicare and Medicaid</t>
+          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -4398,26 +4398,26 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Varsha Murli Chhabria</t>
+          <t>Srinidhi Rajaraman</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Week 6 (10/9)</t>
+          <t>Week 4 (9/25)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>10/9</t>
+          <t>9/25</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Provider: History, Types and Challenges</t>
+          <t>Payer: History, Overview, ACA and Services</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
@@ -4428,26 +4428,26 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Varsha Murli Chhabria</t>
+          <t>Srinidhi Rajaraman</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Week 7 (10/16)</t>
+          <t>Week 5 (10/2)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>10/16</t>
+          <t>10/2</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
+          <t>Payer: Medicare and Medicaid</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -4458,26 +4458,26 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Wesley Tey</t>
+          <t>Srinidhi Rajaraman</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Week 1 (9/4)</t>
+          <t>Week 6 (10/9)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>9/4</t>
+          <t>10/9</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>U.S. Healthcare Ecosystem Overview and History</t>
+          <t>Provider: History, Types and Challenges</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
@@ -4488,26 +4488,26 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Wesley Tey</t>
+          <t>Srinidhi Rajaraman</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Week 2 (9/11)</t>
+          <t>Week 7 (10/16)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>9/11</t>
+          <t>10/16</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
+          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -4518,26 +4518,26 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Wesley Tey</t>
+          <t>Srinidhi Rajaraman</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Week 3 (9/18)</t>
+          <t>Week 8 (10/23)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>9/18</t>
+          <t>10/23</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
+          <t>Government: Policies and regulations, Social Determinants of Health</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
@@ -4548,26 +4548,26 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Wesley Tey</t>
+          <t>Srishti Michael</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Week 4 (9/25)</t>
+          <t>Week 1 (9/4)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>9/25</t>
+          <t>9/4</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Payer: History, Overview, ACA and Services</t>
+          <t>U.S. Healthcare Ecosystem Overview and History</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -4578,22 +4578,22 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Wesley Tey</t>
+          <t>Srishti Michael</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Week 5 (10/2)</t>
+          <t>Week 2 (9/11)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>10/2</t>
+          <t>9/11</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Payer: Medicare and Medicaid</t>
+          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
         </is>
       </c>
       <c r="E139" t="n">
@@ -4608,26 +4608,26 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Wesley Tey</t>
+          <t>Srishti Michael</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Week 6 (10/9)</t>
+          <t>Week 3 (9/18)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>10/9</t>
+          <t>9/18</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Provider: History, Types and Challenges</t>
+          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
@@ -4638,28 +4638,628 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
+          <t>Srishti Michael</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Week 4 (9/25)</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>9/25</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Payer: History, Overview, ACA and Services</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>0</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Srishti Michael</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Week 5 (10/2)</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>10/2</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Payer: Medicare and Medicaid</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>0</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Srishti Michael</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Week 6 (10/9)</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>10/9</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Provider: History, Types and Challenges</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>0</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Srishti Michael</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Week 7 (10/16)</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>10/16</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>0</v>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Srishti Michael</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Week 8 (10/23)</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>10/23</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Government: Policies and regulations, Social Determinants of Health</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>0</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Varsha Murli Chhabria</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Week 1 (9/4)</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>9/4</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>U.S. Healthcare Ecosystem Overview and History</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>2</v>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Varsha Murli Chhabria</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Week 2 (9/11)</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>9/11</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>1</v>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Varsha Murli Chhabria</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Week 3 (9/18)</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>9/18</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>1</v>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Varsha Murli Chhabria</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Week 4 (9/25)</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>9/25</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Payer: History, Overview, ACA and Services</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>0</v>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Varsha Murli Chhabria</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Week 5 (10/2)</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>10/2</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Payer: Medicare and Medicaid</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>3</v>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Varsha Murli Chhabria</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Week 6 (10/9)</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>10/9</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Provider: History, Types and Challenges</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>0</v>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Varsha Murli Chhabria</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Week 7 (10/16)</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>10/16</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>2</v>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Varsha Murli Chhabria</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Week 8 (10/23)</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>10/23</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Government: Policies and regulations, Social Determinants of Health</t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v>1</v>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
           <t>Wesley Tey</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr">
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Week 1 (9/4)</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>9/4</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>U.S. Healthcare Ecosystem Overview and History</t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v>2</v>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Wesley Tey</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Week 2 (9/11)</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>9/11</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v>1</v>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Wesley Tey</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Week 3 (9/18)</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>9/18</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>1</v>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Wesley Tey</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Week 4 (9/25)</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>9/25</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Payer: History, Overview, ACA and Services</t>
+        </is>
+      </c>
+      <c r="E157" t="n">
+        <v>0</v>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Wesley Tey</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Week 5 (10/2)</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>10/2</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Payer: Medicare and Medicaid</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v>0</v>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Wesley Tey</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Week 6 (10/9)</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>10/9</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Provider: History, Types and Challenges</t>
+        </is>
+      </c>
+      <c r="E159" t="n">
+        <v>4</v>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Wesley Tey</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
         <is>
           <t>Week 7 (10/16)</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
+      <c r="C160" t="inlineStr">
         <is>
           <t>10/16</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
+      <c r="D160" t="inlineStr">
         <is>
           <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
         </is>
       </c>
-      <c r="E141" t="n">
+      <c r="E160" t="n">
         <v>2</v>
       </c>
-      <c r="F141" t="inlineStr">
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Wesley Tey</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Week 8 (10/23)</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>10/23</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Government: Policies and regulations, Social Determinants of Health</t>
+        </is>
+      </c>
+      <c r="E161" t="n">
+        <v>2</v>
+      </c>
+      <c r="F161" t="inlineStr">
         <is>
           <t>Present</t>
         </is>

--- a/American_Healthcare_Class_Cleaned.xlsx
+++ b/American_Healthcare_Class_Cleaned.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F161"/>
+  <dimension ref="A1:F221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,17 +503,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Week 2 (9/11)</t>
+          <t>Week 10 (11/6)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>9/11</t>
+          <t>11/6</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
+          <t>Medicalization, Life Sciences and Alternative Medicine</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -521,7 +521,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
     </row>
@@ -533,21 +533,21 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Week 3 (9/18)</t>
+          <t>Week 11 (11/13)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>9/18</t>
+          <t>11/13</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
+          <t>Healthcare Around the World, Fixing Healthcare</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -563,17 +563,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Week 4 (9/25)</t>
+          <t>Week 2 (9/11)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>9/25</t>
+          <t>9/11</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Payer: History, Overview, ACA and Services</t>
+          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -581,7 +581,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -593,17 +593,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Week 5 (10/2)</t>
+          <t>Week 3 (9/18)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>10/2</t>
+          <t>9/18</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Payer: Medicare and Medicaid</t>
+          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -623,17 +623,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Week 6 (10/9)</t>
+          <t>Week 4 (9/25)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>10/9</t>
+          <t>9/25</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Provider: History, Types and Challenges</t>
+          <t>Payer: History, Overview, ACA and Services</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -653,17 +653,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Week 7 (10/16)</t>
+          <t>Week 5 (10/2)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>10/16</t>
+          <t>10/2</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
+          <t>Payer: Medicare and Medicaid</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -683,21 +683,21 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Week 8 (10/23)</t>
+          <t>Week 6 (10/9)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>10/23</t>
+          <t>10/9</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Government: Policies and regulations, Social Determinants of Health</t>
+          <t>Provider: History, Types and Challenges</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -708,26 +708,26 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Alisha Ealias</t>
+          <t>Akshay Venkatesh</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Week 1 (9/4)</t>
+          <t>Week 7 (10/16)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>9/4</t>
+          <t>10/16</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>U.S. Healthcare Ecosystem Overview and History</t>
+          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -738,26 +738,26 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Alisha Ealias</t>
+          <t>Akshay Venkatesh</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Week 2 (9/11)</t>
+          <t>Week 8 (10/23)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>9/11</t>
+          <t>10/23</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
+          <t>Government: Policies and regulations, Social Determinants of Health</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -768,26 +768,26 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Alisha Ealias</t>
+          <t>Akshay Venkatesh</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Week 3 (9/18)</t>
+          <t>Week 9 (10/30)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>9/18</t>
+          <t>10/30</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
+          <t>Mental, Behavioral Health &amp; Substance Abuse</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -803,17 +803,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Week 4 (9/25)</t>
+          <t>Week 1 (9/4)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>9/25</t>
+          <t>9/4</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Payer: History, Overview, ACA and Services</t>
+          <t>U.S. Healthcare Ecosystem Overview and History</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -833,17 +833,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Week 5 (10/2)</t>
+          <t>Week 10 (11/6)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>10/2</t>
+          <t>11/6</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Payer: Medicare and Medicaid</t>
+          <t>Medicalization, Life Sciences and Alternative Medicine</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -863,21 +863,21 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Week 6 (10/9)</t>
+          <t>Week 11 (11/13)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>10/9</t>
+          <t>11/13</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Provider: History, Types and Challenges</t>
+          <t>Healthcare Around the World, Fixing Healthcare</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -893,21 +893,21 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Week 7 (10/16)</t>
+          <t>Week 2 (9/11)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>10/16</t>
+          <t>9/11</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
+          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -923,21 +923,21 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Week 8 (10/23)</t>
+          <t>Week 3 (9/18)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>10/23</t>
+          <t>9/18</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Government: Policies and regulations, Social Determinants of Health</t>
+          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -948,116 +948,116 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Anika Rahman Maria</t>
+          <t>Alisha Ealias</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Week 1 (9/4)</t>
+          <t>Week 4 (9/25)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>9/4</t>
+          <t>9/25</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>U.S. Healthcare Ecosystem Overview and History</t>
+          <t>Payer: History, Overview, ACA and Services</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Anika Rahman Maria</t>
+          <t>Alisha Ealias</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Week 2 (9/11)</t>
+          <t>Week 5 (10/2)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>9/11</t>
+          <t>10/2</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
+          <t>Payer: Medicare and Medicaid</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Anika Rahman Maria</t>
+          <t>Alisha Ealias</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Week 3 (9/18)</t>
+          <t>Week 6 (10/9)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>9/18</t>
+          <t>10/9</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
+          <t>Provider: History, Types and Challenges</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Anika Rahman Maria</t>
+          <t>Alisha Ealias</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Week 4 (9/25)</t>
+          <t>Week 7 (10/16)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>9/25</t>
+          <t>10/16</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Payer: History, Overview, ACA and Services</t>
+          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1068,26 +1068,26 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Anika Rahman Maria</t>
+          <t>Alisha Ealias</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Week 5 (10/2)</t>
+          <t>Week 8 (10/23)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>10/2</t>
+          <t>10/23</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Payer: Medicare and Medicaid</t>
+          <t>Government: Policies and regulations, Social Determinants of Health</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1098,26 +1098,26 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Anika Rahman Maria</t>
+          <t>Alisha Ealias</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Week 6 (10/9)</t>
+          <t>Week 9 (10/30)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>10/9</t>
+          <t>10/30</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Provider: History, Types and Challenges</t>
+          <t>Mental, Behavioral Health &amp; Substance Abuse</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1133,25 +1133,25 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Week 7 (10/16)</t>
+          <t>Week 1 (9/4)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>10/16</t>
+          <t>9/4</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
+          <t>U.S. Healthcare Ecosystem Overview and History</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -1163,21 +1163,21 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Week 8 (10/23)</t>
+          <t>Week 10 (11/6)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>10/23</t>
+          <t>11/6</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Government: Policies and regulations, Social Determinants of Health</t>
+          <t>Medicalization, Life Sciences and Alternative Medicine</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1188,26 +1188,26 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Astha Gungun Patel</t>
+          <t>Anika Rahman Maria</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Week 1 (9/4)</t>
+          <t>Week 11 (11/13)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>9/4</t>
+          <t>11/13</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>U.S. Healthcare Ecosystem Overview and History</t>
+          <t>Healthcare Around the World, Fixing Healthcare</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Astha Gungun Patel</t>
+          <t>Anika Rahman Maria</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1241,14 +1241,14 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Astha Gungun Patel</t>
+          <t>Anika Rahman Maria</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1278,7 +1278,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Astha Gungun Patel</t>
+          <t>Anika Rahman Maria</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1297,7 +1297,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1308,7 +1308,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Astha Gungun Patel</t>
+          <t>Anika Rahman Maria</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1327,7 +1327,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Astha Gungun Patel</t>
+          <t>Anika Rahman Maria</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1357,7 +1357,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Astha Gungun Patel</t>
+          <t>Anika Rahman Maria</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Astha Gungun Patel</t>
+          <t>Anika Rahman Maria</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1417,7 +1417,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1428,26 +1428,26 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Bhavishya Teki</t>
+          <t>Anika Rahman Maria</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Week 1 (9/4)</t>
+          <t>Week 9 (10/30)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>9/4</t>
+          <t>10/30</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>U.S. Healthcare Ecosystem Overview and History</t>
+          <t>Mental, Behavioral Health &amp; Substance Abuse</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1458,26 +1458,26 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Bhavishya Teki</t>
+          <t>Astha Gungun Patel</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Week 2 (9/11)</t>
+          <t>Week 1 (9/4)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>9/11</t>
+          <t>9/4</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
+          <t>U.S. Healthcare Ecosystem Overview and History</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1488,26 +1488,26 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Bhavishya Teki</t>
+          <t>Astha Gungun Patel</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Week 3 (9/18)</t>
+          <t>Week 10 (11/6)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>9/18</t>
+          <t>11/6</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
+          <t>Medicalization, Life Sciences and Alternative Medicine</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1518,22 +1518,22 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Bhavishya Teki</t>
+          <t>Astha Gungun Patel</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Week 4 (9/25)</t>
+          <t>Week 11 (11/13)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>9/25</t>
+          <t>11/13</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Payer: History, Overview, ACA and Services</t>
+          <t>Healthcare Around the World, Fixing Healthcare</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -1548,22 +1548,22 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Bhavishya Teki</t>
+          <t>Astha Gungun Patel</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Week 5 (10/2)</t>
+          <t>Week 2 (9/11)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>10/2</t>
+          <t>9/11</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Payer: Medicare and Medicaid</t>
+          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -1578,22 +1578,22 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Bhavishya Teki</t>
+          <t>Astha Gungun Patel</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Week 6 (10/9)</t>
+          <t>Week 3 (9/18)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>10/9</t>
+          <t>9/18</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Provider: History, Types and Challenges</t>
+          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -1601,29 +1601,29 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Bhavishya Teki</t>
+          <t>Astha Gungun Patel</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Week 7 (10/16)</t>
+          <t>Week 4 (9/25)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>10/16</t>
+          <t>9/25</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
+          <t>Payer: History, Overview, ACA and Services</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -1638,56 +1638,56 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Bhavishya Teki</t>
+          <t>Astha Gungun Patel</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Week 8 (10/23)</t>
+          <t>Week 5 (10/2)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>10/23</t>
+          <t>10/2</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Government: Policies and regulations, Social Determinants of Health</t>
+          <t>Payer: Medicare and Medicaid</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Excused</t>
+          <t>Present</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Bilegt Batkhorol</t>
+          <t>Astha Gungun Patel</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Week 1 (9/4)</t>
+          <t>Week 6 (10/9)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>9/4</t>
+          <t>10/9</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>U.S. Healthcare Ecosystem Overview and History</t>
+          <t>Provider: History, Types and Challenges</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1698,26 +1698,26 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Bilegt Batkhorol</t>
+          <t>Astha Gungun Patel</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Week 2 (9/11)</t>
+          <t>Week 7 (10/16)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>9/11</t>
+          <t>10/16</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
+          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1728,26 +1728,26 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Bilegt Batkhorol</t>
+          <t>Astha Gungun Patel</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Week 3 (9/18)</t>
+          <t>Week 8 (10/23)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>9/18</t>
+          <t>10/23</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
+          <t>Government: Policies and regulations, Social Determinants of Health</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1758,26 +1758,26 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Bilegt Batkhorol</t>
+          <t>Astha Gungun Patel</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Week 4 (9/25)</t>
+          <t>Week 9 (10/30)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>9/25</t>
+          <t>10/30</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Payer: History, Overview, ACA and Services</t>
+          <t>Mental, Behavioral Health &amp; Substance Abuse</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1788,26 +1788,26 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Bilegt Batkhorol</t>
+          <t>Bhavishya Teki</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Week 5 (10/2)</t>
+          <t>Week 1 (9/4)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>10/2</t>
+          <t>9/4</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Payer: Medicare and Medicaid</t>
+          <t>U.S. Healthcare Ecosystem Overview and History</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1818,22 +1818,22 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Bilegt Batkhorol</t>
+          <t>Bhavishya Teki</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Week 6 (10/9)</t>
+          <t>Week 10 (11/6)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>10/9</t>
+          <t>11/6</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Provider: History, Types and Challenges</t>
+          <t>Medicalization, Life Sciences and Alternative Medicine</t>
         </is>
       </c>
       <c r="E47" t="n">
@@ -1848,22 +1848,22 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Bilegt Batkhorol</t>
+          <t>Bhavishya Teki</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Week 7 (10/16)</t>
+          <t>Week 11 (11/13)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>10/16</t>
+          <t>11/13</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
+          <t>Healthcare Around the World, Fixing Healthcare</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -1878,22 +1878,22 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Bilegt Batkhorol</t>
+          <t>Bhavishya Teki</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Week 8 (10/23)</t>
+          <t>Week 2 (9/11)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>10/23</t>
+          <t>9/11</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Government: Policies and regulations, Social Determinants of Health</t>
+          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
         </is>
       </c>
       <c r="E49" t="n">
@@ -1908,22 +1908,22 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Deepika Joyce Chintha</t>
+          <t>Bhavishya Teki</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Week 1 (9/4)</t>
+          <t>Week 3 (9/18)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>9/4</t>
+          <t>9/18</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>U.S. Healthcare Ecosystem Overview and History</t>
+          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -1938,52 +1938,52 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Deepika Joyce Chintha</t>
+          <t>Bhavishya Teki</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Week 2 (9/11)</t>
+          <t>Week 4 (9/25)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>9/11</t>
+          <t>9/25</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
+          <t>Payer: History, Overview, ACA and Services</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Excused</t>
+          <t>Present</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Deepika Joyce Chintha</t>
+          <t>Bhavishya Teki</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Week 3 (9/18)</t>
+          <t>Week 5 (10/2)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>9/18</t>
+          <t>10/2</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
+          <t>Payer: Medicare and Medicaid</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -1998,22 +1998,22 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Deepika Joyce Chintha</t>
+          <t>Bhavishya Teki</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Week 4 (9/25)</t>
+          <t>Week 6 (10/9)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>9/25</t>
+          <t>10/9</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Payer: History, Overview, ACA and Services</t>
+          <t>Provider: History, Types and Challenges</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -2028,22 +2028,22 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Deepika Joyce Chintha</t>
+          <t>Bhavishya Teki</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Week 5 (10/2)</t>
+          <t>Week 7 (10/16)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>10/2</t>
+          <t>10/16</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Payer: Medicare and Medicaid</t>
+          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -2058,22 +2058,22 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Deepika Joyce Chintha</t>
+          <t>Bhavishya Teki</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Week 6 (10/9)</t>
+          <t>Week 8 (10/23)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>10/9</t>
+          <t>10/23</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Provider: History, Types and Challenges</t>
+          <t>Government: Policies and regulations, Social Determinants of Health</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -2081,29 +2081,29 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Excused</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Deepika Joyce Chintha</t>
+          <t>Bhavishya Teki</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Week 7 (10/16)</t>
+          <t>Week 9 (10/30)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>10/16</t>
+          <t>10/30</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
+          <t>Mental, Behavioral Health &amp; Substance Abuse</t>
         </is>
       </c>
       <c r="E56" t="n">
@@ -2118,26 +2118,26 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Deepika Joyce Chintha</t>
+          <t>Bilegt Batkhorol</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Week 8 (10/23)</t>
+          <t>Week 1 (9/4)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>10/23</t>
+          <t>9/4</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Government: Policies and regulations, Social Determinants of Health</t>
+          <t>U.S. Healthcare Ecosystem Overview and History</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -2148,26 +2148,26 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Julia Key</t>
+          <t>Bilegt Batkhorol</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Week 1 (9/4)</t>
+          <t>Week 10 (11/6)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>9/4</t>
+          <t>11/6</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>U.S. Healthcare Ecosystem Overview and History</t>
+          <t>Medicalization, Life Sciences and Alternative Medicine</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -2178,56 +2178,56 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Julia Key</t>
+          <t>Bilegt Batkhorol</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Week 2 (9/11)</t>
+          <t>Week 11 (11/13)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>9/11</t>
+          <t>11/13</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
+          <t>Healthcare Around the World, Fixing Healthcare</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Excused</t>
+          <t>Present</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Julia Key</t>
+          <t>Bilegt Batkhorol</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Week 3 (9/18)</t>
+          <t>Week 2 (9/11)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>9/18</t>
+          <t>9/11</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
+          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -2238,26 +2238,26 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Julia Key</t>
+          <t>Bilegt Batkhorol</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Week 4 (9/25)</t>
+          <t>Week 3 (9/18)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>9/25</t>
+          <t>9/18</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Payer: History, Overview, ACA and Services</t>
+          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -2268,26 +2268,26 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Julia Key</t>
+          <t>Bilegt Batkhorol</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Week 5 (10/2)</t>
+          <t>Week 4 (9/25)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>10/2</t>
+          <t>9/25</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Payer: Medicare and Medicaid</t>
+          <t>Payer: History, Overview, ACA and Services</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -2298,26 +2298,26 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Julia Key</t>
+          <t>Bilegt Batkhorol</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Week 6 (10/9)</t>
+          <t>Week 5 (10/2)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>10/9</t>
+          <t>10/2</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Provider: History, Types and Challenges</t>
+          <t>Payer: Medicare and Medicaid</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -2328,26 +2328,26 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Julia Key</t>
+          <t>Bilegt Batkhorol</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Week 7 (10/16)</t>
+          <t>Week 6 (10/9)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>10/16</t>
+          <t>10/9</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
+          <t>Provider: History, Types and Challenges</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -2358,26 +2358,26 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Julia Key</t>
+          <t>Bilegt Batkhorol</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Week 8 (10/23)</t>
+          <t>Week 7 (10/16)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>10/23</t>
+          <t>10/16</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Government: Policies and regulations, Social Determinants of Health</t>
+          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -2388,26 +2388,26 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Kai Ern Caius Lee</t>
+          <t>Bilegt Batkhorol</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Week 1 (9/4)</t>
+          <t>Week 8 (10/23)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>9/4</t>
+          <t>10/23</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>U.S. Healthcare Ecosystem Overview and History</t>
+          <t>Government: Policies and regulations, Social Determinants of Health</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -2418,26 +2418,26 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Kai Ern Caius Lee</t>
+          <t>Bilegt Batkhorol</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Week 2 (9/11)</t>
+          <t>Week 9 (10/30)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>9/11</t>
+          <t>10/30</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
+          <t>Mental, Behavioral Health &amp; Substance Abuse</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -2448,22 +2448,22 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Kai Ern Caius Lee</t>
+          <t>Deepika Joyce Chintha</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Week 3 (9/18)</t>
+          <t>Week 1 (9/4)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>9/18</t>
+          <t>9/4</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
+          <t>U.S. Healthcare Ecosystem Overview and History</t>
         </is>
       </c>
       <c r="E68" t="n">
@@ -2478,26 +2478,26 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Kai Ern Caius Lee</t>
+          <t>Deepika Joyce Chintha</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Week 4 (9/25)</t>
+          <t>Week 10 (11/6)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>9/25</t>
+          <t>11/6</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Payer: History, Overview, ACA and Services</t>
+          <t>Medicalization, Life Sciences and Alternative Medicine</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -2508,26 +2508,26 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Kai Ern Caius Lee</t>
+          <t>Deepika Joyce Chintha</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Week 5 (10/2)</t>
+          <t>Week 11 (11/13)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>10/2</t>
+          <t>11/13</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Payer: Medicare and Medicaid</t>
+          <t>Healthcare Around the World, Fixing Healthcare</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -2538,22 +2538,22 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Kai Ern Caius Lee</t>
+          <t>Deepika Joyce Chintha</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Week 6 (10/9)</t>
+          <t>Week 2 (9/11)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>10/9</t>
+          <t>9/11</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Provider: History, Types and Challenges</t>
+          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
         </is>
       </c>
       <c r="E71" t="n">
@@ -2561,33 +2561,33 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Excused</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Kai Ern Caius Lee</t>
+          <t>Deepika Joyce Chintha</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Week 7 (10/16)</t>
+          <t>Week 3 (9/18)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>10/16</t>
+          <t>9/18</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
+          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -2598,22 +2598,22 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Kai Ern Caius Lee</t>
+          <t>Deepika Joyce Chintha</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Week 8 (10/23)</t>
+          <t>Week 4 (9/25)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>10/23</t>
+          <t>9/25</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Government: Policies and regulations, Social Determinants of Health</t>
+          <t>Payer: History, Overview, ACA and Services</t>
         </is>
       </c>
       <c r="E73" t="n">
@@ -2628,22 +2628,22 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Kirti Gautam</t>
+          <t>Deepika Joyce Chintha</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Week 1 (9/4)</t>
+          <t>Week 5 (10/2)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>9/4</t>
+          <t>10/2</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>U.S. Healthcare Ecosystem Overview and History</t>
+          <t>Payer: Medicare and Medicaid</t>
         </is>
       </c>
       <c r="E74" t="n">
@@ -2658,26 +2658,26 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Kirti Gautam</t>
+          <t>Deepika Joyce Chintha</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Week 2 (9/11)</t>
+          <t>Week 6 (10/9)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>9/11</t>
+          <t>10/9</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
+          <t>Provider: History, Types and Challenges</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -2688,26 +2688,26 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Kirti Gautam</t>
+          <t>Deepika Joyce Chintha</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Week 3 (9/18)</t>
+          <t>Week 7 (10/16)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>9/18</t>
+          <t>10/16</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
+          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -2718,26 +2718,26 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Kirti Gautam</t>
+          <t>Deepika Joyce Chintha</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Week 4 (9/25)</t>
+          <t>Week 8 (10/23)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>9/25</t>
+          <t>10/23</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Payer: History, Overview, ACA and Services</t>
+          <t>Government: Policies and regulations, Social Determinants of Health</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -2748,22 +2748,22 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Kirti Gautam</t>
+          <t>Deepika Joyce Chintha</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Week 5 (10/2)</t>
+          <t>Week 9 (10/30)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>10/2</t>
+          <t>10/30</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Payer: Medicare and Medicaid</t>
+          <t>Mental, Behavioral Health &amp; Substance Abuse</t>
         </is>
       </c>
       <c r="E78" t="n">
@@ -2778,26 +2778,26 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Kirti Gautam</t>
+          <t>Julia Key</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Week 6 (10/9)</t>
+          <t>Week 1 (9/4)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>10/9</t>
+          <t>9/4</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Provider: History, Types and Challenges</t>
+          <t>U.S. Healthcare Ecosystem Overview and History</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -2808,26 +2808,26 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Kirti Gautam</t>
+          <t>Julia Key</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Week 7 (10/16)</t>
+          <t>Week 10 (11/6)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>10/16</t>
+          <t>11/6</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
+          <t>Medicalization, Life Sciences and Alternative Medicine</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -2838,26 +2838,26 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Kirti Gautam</t>
+          <t>Julia Key</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Week 8 (10/23)</t>
+          <t>Week 11 (11/13)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>10/23</t>
+          <t>11/13</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Government: Policies and regulations, Social Determinants of Health</t>
+          <t>Healthcare Around the World, Fixing Healthcare</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -2868,56 +2868,56 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Mary O'Reilly</t>
+          <t>Julia Key</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Week 1 (9/4)</t>
+          <t>Week 2 (9/11)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>9/4</t>
+          <t>9/11</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>U.S. Healthcare Ecosystem Overview and History</t>
+          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Excused</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Mary O'Reilly</t>
+          <t>Julia Key</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Week 2 (9/11)</t>
+          <t>Week 3 (9/18)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>9/11</t>
+          <t>9/18</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
+          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -2928,26 +2928,26 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Mary O'Reilly</t>
+          <t>Julia Key</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Week 3 (9/18)</t>
+          <t>Week 4 (9/25)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>9/18</t>
+          <t>9/25</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
+          <t>Payer: History, Overview, ACA and Services</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -2958,26 +2958,26 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Mary O'Reilly</t>
+          <t>Julia Key</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Week 4 (9/25)</t>
+          <t>Week 5 (10/2)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>9/25</t>
+          <t>10/2</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Payer: History, Overview, ACA and Services</t>
+          <t>Payer: Medicare and Medicaid</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -2988,26 +2988,26 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Mary O'Reilly</t>
+          <t>Julia Key</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Week 5 (10/2)</t>
+          <t>Week 6 (10/9)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>10/2</t>
+          <t>10/9</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Payer: Medicare and Medicaid</t>
+          <t>Provider: History, Types and Challenges</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -3018,26 +3018,26 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Mary O'Reilly</t>
+          <t>Julia Key</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Week 6 (10/9)</t>
+          <t>Week 7 (10/16)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>10/9</t>
+          <t>10/16</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Provider: History, Types and Challenges</t>
+          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -3048,26 +3048,26 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Mary O'Reilly</t>
+          <t>Julia Key</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Week 7 (10/16)</t>
+          <t>Week 8 (10/23)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>10/16</t>
+          <t>10/23</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
+          <t>Government: Policies and regulations, Social Determinants of Health</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -3078,26 +3078,26 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Mary O'Reilly</t>
+          <t>Julia Key</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Week 8 (10/23)</t>
+          <t>Week 9 (10/30)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>10/23</t>
+          <t>10/30</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Government: Policies and regulations, Social Determinants of Health</t>
+          <t>Mental, Behavioral Health &amp; Substance Abuse</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -3108,7 +3108,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Michael Madden</t>
+          <t>Kai Ern Caius Lee</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -3138,26 +3138,26 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Michael Madden</t>
+          <t>Kai Ern Caius Lee</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Week 2 (9/11)</t>
+          <t>Week 10 (11/6)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>9/11</t>
+          <t>11/6</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
+          <t>Medicalization, Life Sciences and Alternative Medicine</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -3168,26 +3168,26 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Michael Madden</t>
+          <t>Kai Ern Caius Lee</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Week 3 (9/18)</t>
+          <t>Week 11 (11/13)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>9/18</t>
+          <t>11/13</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
+          <t>Healthcare Around the World, Fixing Healthcare</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -3198,26 +3198,26 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Michael Madden</t>
+          <t>Kai Ern Caius Lee</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Week 4 (9/25)</t>
+          <t>Week 2 (9/11)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>9/25</t>
+          <t>9/11</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Payer: History, Overview, ACA and Services</t>
+          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -3228,56 +3228,56 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Michael Madden</t>
+          <t>Kai Ern Caius Lee</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Week 5 (10/2)</t>
+          <t>Week 3 (9/18)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>10/2</t>
+          <t>9/18</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Payer: Medicare and Medicaid</t>
+          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Excused</t>
+          <t>Present</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Michael Madden</t>
+          <t>Kai Ern Caius Lee</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Week 6 (10/9)</t>
+          <t>Week 4 (9/25)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>10/9</t>
+          <t>9/25</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Provider: History, Types and Challenges</t>
+          <t>Payer: History, Overview, ACA and Services</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -3288,26 +3288,26 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Michael Madden</t>
+          <t>Kai Ern Caius Lee</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Week 7 (10/16)</t>
+          <t>Week 5 (10/2)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>10/16</t>
+          <t>10/2</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
+          <t>Payer: Medicare and Medicaid</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -3318,26 +3318,26 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Michael Madden</t>
+          <t>Kai Ern Caius Lee</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Week 8 (10/23)</t>
+          <t>Week 6 (10/9)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>10/23</t>
+          <t>10/9</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Government: Policies and regulations, Social Determinants of Health</t>
+          <t>Provider: History, Types and Challenges</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -3348,26 +3348,26 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Prakruthi Jayant</t>
+          <t>Kai Ern Caius Lee</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Week 1 (9/4)</t>
+          <t>Week 7 (10/16)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>9/4</t>
+          <t>10/16</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>U.S. Healthcare Ecosystem Overview and History</t>
+          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -3378,22 +3378,22 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Prakruthi Jayant</t>
+          <t>Kai Ern Caius Lee</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Week 2 (9/11)</t>
+          <t>Week 8 (10/23)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>9/11</t>
+          <t>10/23</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
+          <t>Government: Policies and regulations, Social Determinants of Health</t>
         </is>
       </c>
       <c r="E99" t="n">
@@ -3408,26 +3408,26 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Prakruthi Jayant</t>
+          <t>Kai Ern Caius Lee</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Week 3 (9/18)</t>
+          <t>Week 9 (10/30)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>9/18</t>
+          <t>10/30</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
+          <t>Mental, Behavioral Health &amp; Substance Abuse</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -3438,26 +3438,26 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Prakruthi Jayant</t>
+          <t>Kirti Gautam</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Week 4 (9/25)</t>
+          <t>Week 1 (9/4)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>9/25</t>
+          <t>9/4</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Payer: History, Overview, ACA and Services</t>
+          <t>U.S. Healthcare Ecosystem Overview and History</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -3468,26 +3468,26 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Prakruthi Jayant</t>
+          <t>Kirti Gautam</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Week 5 (10/2)</t>
+          <t>Week 10 (11/6)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>10/2</t>
+          <t>11/6</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Payer: Medicare and Medicaid</t>
+          <t>Medicalization, Life Sciences and Alternative Medicine</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -3498,26 +3498,26 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Prakruthi Jayant</t>
+          <t>Kirti Gautam</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Week 6 (10/9)</t>
+          <t>Week 11 (11/13)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>10/9</t>
+          <t>11/13</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Provider: History, Types and Challenges</t>
+          <t>Healthcare Around the World, Fixing Healthcare</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -3528,26 +3528,26 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Prakruthi Jayant</t>
+          <t>Kirti Gautam</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Week 7 (10/16)</t>
+          <t>Week 2 (9/11)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>10/16</t>
+          <t>9/11</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
+          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -3558,26 +3558,26 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Prakruthi Jayant</t>
+          <t>Kirti Gautam</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Week 8 (10/23)</t>
+          <t>Week 3 (9/18)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>10/23</t>
+          <t>9/18</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Government: Policies and regulations, Social Determinants of Health</t>
+          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -3588,22 +3588,22 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Priyanka Umesh Patil</t>
+          <t>Kirti Gautam</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Week 1 (9/4)</t>
+          <t>Week 4 (9/25)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>9/4</t>
+          <t>9/25</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>U.S. Healthcare Ecosystem Overview and History</t>
+          <t>Payer: History, Overview, ACA and Services</t>
         </is>
       </c>
       <c r="E106" t="n">
@@ -3618,26 +3618,26 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Priyanka Umesh Patil</t>
+          <t>Kirti Gautam</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Week 2 (9/11)</t>
+          <t>Week 5 (10/2)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>9/11</t>
+          <t>10/2</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
+          <t>Payer: Medicare and Medicaid</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -3648,26 +3648,26 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Priyanka Umesh Patil</t>
+          <t>Kirti Gautam</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Week 3 (9/18)</t>
+          <t>Week 6 (10/9)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>9/18</t>
+          <t>10/9</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
+          <t>Provider: History, Types and Challenges</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -3678,26 +3678,26 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Priyanka Umesh Patil</t>
+          <t>Kirti Gautam</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Week 4 (9/25)</t>
+          <t>Week 7 (10/16)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>9/25</t>
+          <t>10/16</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Payer: History, Overview, ACA and Services</t>
+          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -3708,26 +3708,26 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Priyanka Umesh Patil</t>
+          <t>Kirti Gautam</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Week 5 (10/2)</t>
+          <t>Week 8 (10/23)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>10/2</t>
+          <t>10/23</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Payer: Medicare and Medicaid</t>
+          <t>Government: Policies and regulations, Social Determinants of Health</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -3738,22 +3738,22 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Priyanka Umesh Patil</t>
+          <t>Kirti Gautam</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Week 6 (10/9)</t>
+          <t>Week 9 (10/30)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>10/9</t>
+          <t>10/30</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Provider: History, Types and Challenges</t>
+          <t>Mental, Behavioral Health &amp; Substance Abuse</t>
         </is>
       </c>
       <c r="E111" t="n">
@@ -3768,22 +3768,22 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Priyanka Umesh Patil</t>
+          <t>Mary O'Reilly</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Week 7 (10/16)</t>
+          <t>Week 1 (9/4)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>10/16</t>
+          <t>9/4</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
+          <t>U.S. Healthcare Ecosystem Overview and History</t>
         </is>
       </c>
       <c r="E112" t="n">
@@ -3798,22 +3798,22 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Priyanka Umesh Patil</t>
+          <t>Mary O'Reilly</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Week 8 (10/23)</t>
+          <t>Week 10 (11/6)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>10/23</t>
+          <t>11/6</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Government: Policies and regulations, Social Determinants of Health</t>
+          <t>Medicalization, Life Sciences and Alternative Medicine</t>
         </is>
       </c>
       <c r="E113" t="n">
@@ -3828,37 +3828,37 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Priyanshi Patel</t>
+          <t>Mary O'Reilly</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Week 1 (9/4)</t>
+          <t>Week 11 (11/13)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>9/4</t>
+          <t>11/13</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>U.S. Healthcare Ecosystem Overview and History</t>
+          <t>Healthcare Around the World, Fixing Healthcare</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Excused</t>
+          <t>Present</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Priyanshi Patel</t>
+          <t>Mary O'Reilly</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -3877,18 +3877,18 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Excused</t>
+          <t>Present</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Priyanshi Patel</t>
+          <t>Mary O'Reilly</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Priyanshi Patel</t>
+          <t>Mary O'Reilly</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -3937,7 +3937,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Priyanshi Patel</t>
+          <t>Mary O'Reilly</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -3967,18 +3967,18 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Excused</t>
+          <t>Present</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Priyanshi Patel</t>
+          <t>Mary O'Reilly</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -3997,7 +3997,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Priyanshi Patel</t>
+          <t>Mary O'Reilly</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -4027,7 +4027,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Priyanshi Patel</t>
+          <t>Mary O'Reilly</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -4068,86 +4068,86 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Samwel Gitundu</t>
+          <t>Mary O'Reilly</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Week 1 (9/4)</t>
+          <t>Week 9 (10/30)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>9/4</t>
+          <t>10/30</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>U.S. Healthcare Ecosystem Overview and History</t>
+          <t>Mental, Behavioral Health &amp; Substance Abuse</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Excused</t>
+          <t>Present</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Samwel Gitundu</t>
+          <t>Michael Madden</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Week 2 (9/11)</t>
+          <t>Week 1 (9/4)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>9/11</t>
+          <t>9/4</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
+          <t>U.S. Healthcare Ecosystem Overview and History</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Excused</t>
+          <t>Present</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Samwel Gitundu</t>
+          <t>Michael Madden</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Week 3 (9/18)</t>
+          <t>Week 10 (11/6)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>9/18</t>
+          <t>11/6</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
+          <t>Medicalization, Life Sciences and Alternative Medicine</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
@@ -4158,26 +4158,26 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Samwel Gitundu</t>
+          <t>Michael Madden</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Week 4 (9/25)</t>
+          <t>Week 11 (11/13)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>9/25</t>
+          <t>11/13</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Payer: History, Overview, ACA and Services</t>
+          <t>Healthcare Around the World, Fixing Healthcare</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -4188,22 +4188,22 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Samwel Gitundu</t>
+          <t>Michael Madden</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Week 5 (10/2)</t>
+          <t>Week 2 (9/11)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>10/2</t>
+          <t>9/11</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Payer: Medicare and Medicaid</t>
+          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
         </is>
       </c>
       <c r="E126" t="n">
@@ -4218,26 +4218,26 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Samwel Gitundu</t>
+          <t>Michael Madden</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Week 6 (10/9)</t>
+          <t>Week 3 (9/18)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>10/9</t>
+          <t>9/18</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Provider: History, Types and Challenges</t>
+          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -4248,26 +4248,26 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Samwel Gitundu</t>
+          <t>Michael Madden</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Week 7 (10/16)</t>
+          <t>Week 4 (9/25)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>10/16</t>
+          <t>9/25</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
+          <t>Payer: History, Overview, ACA and Services</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
@@ -4278,22 +4278,22 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Samwel Gitundu</t>
+          <t>Michael Madden</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Week 8 (10/23)</t>
+          <t>Week 5 (10/2)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>10/23</t>
+          <t>10/2</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Government: Policies and regulations, Social Determinants of Health</t>
+          <t>Payer: Medicare and Medicaid</t>
         </is>
       </c>
       <c r="E129" t="n">
@@ -4301,33 +4301,33 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Excused</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Srinidhi Rajaraman</t>
+          <t>Michael Madden</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Week 1 (9/4)</t>
+          <t>Week 6 (10/9)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>9/4</t>
+          <t>10/9</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>U.S. Healthcare Ecosystem Overview and History</t>
+          <t>Provider: History, Types and Challenges</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -4338,56 +4338,56 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Srinidhi Rajaraman</t>
+          <t>Michael Madden</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Week 2 (9/11)</t>
+          <t>Week 7 (10/16)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>9/11</t>
+          <t>10/16</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
+          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Srinidhi Rajaraman</t>
+          <t>Michael Madden</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Week 3 (9/18)</t>
+          <t>Week 8 (10/23)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>9/18</t>
+          <t>10/23</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
+          <t>Government: Policies and regulations, Social Determinants of Health</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -4398,26 +4398,26 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Srinidhi Rajaraman</t>
+          <t>Michael Madden</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Week 4 (9/25)</t>
+          <t>Week 9 (10/30)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>9/25</t>
+          <t>10/30</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Payer: History, Overview, ACA and Services</t>
+          <t>Mental, Behavioral Health &amp; Substance Abuse</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
@@ -4428,26 +4428,26 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Srinidhi Rajaraman</t>
+          <t>Prakruthi Jayant</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Week 5 (10/2)</t>
+          <t>Week 1 (9/4)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>10/2</t>
+          <t>9/4</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Payer: Medicare and Medicaid</t>
+          <t>U.S. Healthcare Ecosystem Overview and History</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -4458,22 +4458,22 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Srinidhi Rajaraman</t>
+          <t>Prakruthi Jayant</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Week 6 (10/9)</t>
+          <t>Week 10 (11/6)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>10/9</t>
+          <t>11/6</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Provider: History, Types and Challenges</t>
+          <t>Medicalization, Life Sciences and Alternative Medicine</t>
         </is>
       </c>
       <c r="E135" t="n">
@@ -4488,26 +4488,26 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Srinidhi Rajaraman</t>
+          <t>Prakruthi Jayant</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Week 7 (10/16)</t>
+          <t>Week 11 (11/13)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>10/16</t>
+          <t>11/13</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
+          <t>Healthcare Around the World, Fixing Healthcare</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -4518,26 +4518,26 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Srinidhi Rajaraman</t>
+          <t>Prakruthi Jayant</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Week 8 (10/23)</t>
+          <t>Week 2 (9/11)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>10/23</t>
+          <t>9/11</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Government: Policies and regulations, Social Determinants of Health</t>
+          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
@@ -4548,22 +4548,22 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Srishti Michael</t>
+          <t>Prakruthi Jayant</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Week 1 (9/4)</t>
+          <t>Week 3 (9/18)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>9/4</t>
+          <t>9/18</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>U.S. Healthcare Ecosystem Overview and History</t>
+          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
         </is>
       </c>
       <c r="E138" t="n">
@@ -4578,26 +4578,26 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Srishti Michael</t>
+          <t>Prakruthi Jayant</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Week 2 (9/11)</t>
+          <t>Week 4 (9/25)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>9/11</t>
+          <t>9/25</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
+          <t>Payer: History, Overview, ACA and Services</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -4608,26 +4608,26 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Srishti Michael</t>
+          <t>Prakruthi Jayant</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Week 3 (9/18)</t>
+          <t>Week 5 (10/2)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>9/18</t>
+          <t>10/2</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
+          <t>Payer: Medicare and Medicaid</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
@@ -4638,22 +4638,22 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Srishti Michael</t>
+          <t>Prakruthi Jayant</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Week 4 (9/25)</t>
+          <t>Week 6 (10/9)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>9/25</t>
+          <t>10/9</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Payer: History, Overview, ACA and Services</t>
+          <t>Provider: History, Types and Challenges</t>
         </is>
       </c>
       <c r="E141" t="n">
@@ -4668,26 +4668,26 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Srishti Michael</t>
+          <t>Prakruthi Jayant</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Week 5 (10/2)</t>
+          <t>Week 7 (10/16)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>10/2</t>
+          <t>10/16</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Payer: Medicare and Medicaid</t>
+          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -4698,26 +4698,26 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Srishti Michael</t>
+          <t>Prakruthi Jayant</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Week 6 (10/9)</t>
+          <t>Week 8 (10/23)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>10/9</t>
+          <t>10/23</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Provider: History, Types and Challenges</t>
+          <t>Government: Policies and regulations, Social Determinants of Health</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -4728,26 +4728,26 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Srishti Michael</t>
+          <t>Prakruthi Jayant</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Week 7 (10/16)</t>
+          <t>Week 9 (10/30)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>10/16</t>
+          <t>10/30</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
+          <t>Mental, Behavioral Health &amp; Substance Abuse</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -4758,26 +4758,26 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Srishti Michael</t>
+          <t>Priyanka Umesh Patil</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Week 8 (10/23)</t>
+          <t>Week 1 (9/4)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>10/23</t>
+          <t>9/4</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Government: Policies and regulations, Social Determinants of Health</t>
+          <t>U.S. Healthcare Ecosystem Overview and History</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
@@ -4788,22 +4788,22 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Varsha Murli Chhabria</t>
+          <t>Priyanka Umesh Patil</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Week 1 (9/4)</t>
+          <t>Week 10 (11/6)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>9/4</t>
+          <t>11/6</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>U.S. Healthcare Ecosystem Overview and History</t>
+          <t>Medicalization, Life Sciences and Alternative Medicine</t>
         </is>
       </c>
       <c r="E146" t="n">
@@ -4818,26 +4818,26 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Varsha Murli Chhabria</t>
+          <t>Priyanka Umesh Patil</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Week 2 (9/11)</t>
+          <t>Week 11 (11/13)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>9/11</t>
+          <t>11/13</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
+          <t>Healthcare Around the World, Fixing Healthcare</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
@@ -4848,26 +4848,26 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Varsha Murli Chhabria</t>
+          <t>Priyanka Umesh Patil</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Week 3 (9/18)</t>
+          <t>Week 2 (9/11)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>9/18</t>
+          <t>9/11</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
+          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
@@ -4878,26 +4878,26 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Varsha Murli Chhabria</t>
+          <t>Priyanka Umesh Patil</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Week 4 (9/25)</t>
+          <t>Week 3 (9/18)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>9/25</t>
+          <t>9/18</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Payer: History, Overview, ACA and Services</t>
+          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
@@ -4908,26 +4908,26 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Varsha Murli Chhabria</t>
+          <t>Priyanka Umesh Patil</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Week 5 (10/2)</t>
+          <t>Week 4 (9/25)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>10/2</t>
+          <t>9/25</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Payer: Medicare and Medicaid</t>
+          <t>Payer: History, Overview, ACA and Services</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
@@ -4938,26 +4938,26 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Varsha Murli Chhabria</t>
+          <t>Priyanka Umesh Patil</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Week 6 (10/9)</t>
+          <t>Week 5 (10/2)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>10/9</t>
+          <t>10/2</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Provider: History, Types and Challenges</t>
+          <t>Payer: Medicare and Medicaid</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -4968,22 +4968,22 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Varsha Murli Chhabria</t>
+          <t>Priyanka Umesh Patil</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Week 7 (10/16)</t>
+          <t>Week 6 (10/9)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>10/16</t>
+          <t>10/9</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
+          <t>Provider: History, Types and Challenges</t>
         </is>
       </c>
       <c r="E152" t="n">
@@ -4998,26 +4998,26 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Varsha Murli Chhabria</t>
+          <t>Priyanka Umesh Patil</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Week 8 (10/23)</t>
+          <t>Week 7 (10/16)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>10/23</t>
+          <t>10/16</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Government: Policies and regulations, Social Determinants of Health</t>
+          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
@@ -5028,22 +5028,22 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Wesley Tey</t>
+          <t>Priyanka Umesh Patil</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Week 1 (9/4)</t>
+          <t>Week 8 (10/23)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>9/4</t>
+          <t>10/23</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>U.S. Healthcare Ecosystem Overview and History</t>
+          <t>Government: Policies and regulations, Social Determinants of Health</t>
         </is>
       </c>
       <c r="E154" t="n">
@@ -5058,26 +5058,26 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Wesley Tey</t>
+          <t>Priyanka Umesh Patil</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Week 2 (9/11)</t>
+          <t>Week 9 (10/30)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>9/11</t>
+          <t>10/30</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
+          <t>Mental, Behavioral Health &amp; Substance Abuse</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
@@ -5088,56 +5088,56 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Wesley Tey</t>
+          <t>Priyanshi Patel</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Week 3 (9/18)</t>
+          <t>Week 1 (9/4)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>9/18</t>
+          <t>9/4</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
+          <t>U.S. Healthcare Ecosystem Overview and History</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Excused</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Wesley Tey</t>
+          <t>Priyanshi Patel</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Week 4 (9/25)</t>
+          <t>Week 10 (11/6)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>9/25</t>
+          <t>11/6</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Payer: History, Overview, ACA and Services</t>
+          <t>Medicalization, Life Sciences and Alternative Medicine</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
@@ -5148,22 +5148,22 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Wesley Tey</t>
+          <t>Priyanshi Patel</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Week 5 (10/2)</t>
+          <t>Week 11 (11/13)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>10/2</t>
+          <t>11/13</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Payer: Medicare and Medicaid</t>
+          <t>Healthcare Around the World, Fixing Healthcare</t>
         </is>
       </c>
       <c r="E158" t="n">
@@ -5171,63 +5171,63 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Excused</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Wesley Tey</t>
+          <t>Priyanshi Patel</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Week 6 (10/9)</t>
+          <t>Week 2 (9/11)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>10/9</t>
+          <t>9/11</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Provider: History, Types and Challenges</t>
+          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Excused</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Wesley Tey</t>
+          <t>Priyanshi Patel</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Week 7 (10/16)</t>
+          <t>Week 3 (9/18)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>10/16</t>
+          <t>9/18</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
+          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -5238,28 +5238,1828 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
+          <t>Priyanshi Patel</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Week 4 (9/25)</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>9/25</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Payer: History, Overview, ACA and Services</t>
+        </is>
+      </c>
+      <c r="E161" t="n">
+        <v>1</v>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Priyanshi Patel</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Week 5 (10/2)</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>10/2</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Payer: Medicare and Medicaid</t>
+        </is>
+      </c>
+      <c r="E162" t="n">
+        <v>0</v>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Excused</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Priyanshi Patel</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Week 6 (10/9)</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>10/9</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Provider: History, Types and Challenges</t>
+        </is>
+      </c>
+      <c r="E163" t="n">
+        <v>0</v>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Priyanshi Patel</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Week 7 (10/16)</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>10/16</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
+        </is>
+      </c>
+      <c r="E164" t="n">
+        <v>0</v>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Priyanshi Patel</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Week 8 (10/23)</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>10/23</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Government: Policies and regulations, Social Determinants of Health</t>
+        </is>
+      </c>
+      <c r="E165" t="n">
+        <v>1</v>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Priyanshi Patel</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Week 9 (10/30)</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>10/30</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Mental, Behavioral Health &amp; Substance Abuse</t>
+        </is>
+      </c>
+      <c r="E166" t="n">
+        <v>0</v>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Samwel Gitundu</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Week 1 (9/4)</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>9/4</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>U.S. Healthcare Ecosystem Overview and History</t>
+        </is>
+      </c>
+      <c r="E167" t="n">
+        <v>0</v>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Excused</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Samwel Gitundu</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Week 10 (11/6)</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>11/6</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Medicalization, Life Sciences and Alternative Medicine</t>
+        </is>
+      </c>
+      <c r="E168" t="n">
+        <v>4</v>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Samwel Gitundu</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Week 11 (11/13)</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>11/13</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Healthcare Around the World, Fixing Healthcare</t>
+        </is>
+      </c>
+      <c r="E169" t="n">
+        <v>3</v>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Samwel Gitundu</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Week 2 (9/11)</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>9/11</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
+        </is>
+      </c>
+      <c r="E170" t="n">
+        <v>0</v>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Excused</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Samwel Gitundu</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Week 3 (9/18)</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>9/18</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
+        </is>
+      </c>
+      <c r="E171" t="n">
+        <v>1</v>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Samwel Gitundu</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Week 4 (9/25)</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>9/25</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Payer: History, Overview, ACA and Services</t>
+        </is>
+      </c>
+      <c r="E172" t="n">
+        <v>1</v>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Samwel Gitundu</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Week 5 (10/2)</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>10/2</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Payer: Medicare and Medicaid</t>
+        </is>
+      </c>
+      <c r="E173" t="n">
+        <v>2</v>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Samwel Gitundu</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Week 6 (10/9)</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>10/9</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Provider: History, Types and Challenges</t>
+        </is>
+      </c>
+      <c r="E174" t="n">
+        <v>4</v>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Samwel Gitundu</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Week 7 (10/16)</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>10/16</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
+        </is>
+      </c>
+      <c r="E175" t="n">
+        <v>4</v>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Samwel Gitundu</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Week 8 (10/23)</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>10/23</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Government: Policies and regulations, Social Determinants of Health</t>
+        </is>
+      </c>
+      <c r="E176" t="n">
+        <v>0</v>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Samwel Gitundu</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Week 9 (10/30)</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>10/30</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Mental, Behavioral Health &amp; Substance Abuse</t>
+        </is>
+      </c>
+      <c r="E177" t="n">
+        <v>0</v>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Srinidhi Rajaraman</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Week 1 (9/4)</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>9/4</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>U.S. Healthcare Ecosystem Overview and History</t>
+        </is>
+      </c>
+      <c r="E178" t="n">
+        <v>1</v>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Srinidhi Rajaraman</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Week 10 (11/6)</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>11/6</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Medicalization, Life Sciences and Alternative Medicine</t>
+        </is>
+      </c>
+      <c r="E179" t="n">
+        <v>0</v>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Srinidhi Rajaraman</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Week 11 (11/13)</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>11/13</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Healthcare Around the World, Fixing Healthcare</t>
+        </is>
+      </c>
+      <c r="E180" t="n">
+        <v>1</v>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Srinidhi Rajaraman</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Week 2 (9/11)</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>9/11</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
+        </is>
+      </c>
+      <c r="E181" t="n">
+        <v>0</v>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Srinidhi Rajaraman</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Week 3 (9/18)</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>9/18</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
+        </is>
+      </c>
+      <c r="E182" t="n">
+        <v>0</v>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Srinidhi Rajaraman</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Week 4 (9/25)</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>9/25</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Payer: History, Overview, ACA and Services</t>
+        </is>
+      </c>
+      <c r="E183" t="n">
+        <v>2</v>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Srinidhi Rajaraman</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Week 5 (10/2)</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>10/2</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Payer: Medicare and Medicaid</t>
+        </is>
+      </c>
+      <c r="E184" t="n">
+        <v>0</v>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Srinidhi Rajaraman</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Week 6 (10/9)</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>10/9</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Provider: History, Types and Challenges</t>
+        </is>
+      </c>
+      <c r="E185" t="n">
+        <v>0</v>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Srinidhi Rajaraman</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Week 7 (10/16)</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>10/16</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
+        </is>
+      </c>
+      <c r="E186" t="n">
+        <v>2</v>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Srinidhi Rajaraman</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Week 8 (10/23)</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>10/23</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Government: Policies and regulations, Social Determinants of Health</t>
+        </is>
+      </c>
+      <c r="E187" t="n">
+        <v>3</v>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Srinidhi Rajaraman</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Week 9 (10/30)</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>10/30</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Mental, Behavioral Health &amp; Substance Abuse</t>
+        </is>
+      </c>
+      <c r="E188" t="n">
+        <v>3</v>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Srishti Michael</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Week 1 (9/4)</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>9/4</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>U.S. Healthcare Ecosystem Overview and History</t>
+        </is>
+      </c>
+      <c r="E189" t="n">
+        <v>1</v>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Srishti Michael</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Week 10 (11/6)</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>11/6</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Medicalization, Life Sciences and Alternative Medicine</t>
+        </is>
+      </c>
+      <c r="E190" t="n">
+        <v>1</v>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Srishti Michael</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Week 11 (11/13)</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>11/13</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Healthcare Around the World, Fixing Healthcare</t>
+        </is>
+      </c>
+      <c r="E191" t="n">
+        <v>1</v>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Srishti Michael</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Week 2 (9/11)</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>9/11</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
+        </is>
+      </c>
+      <c r="E192" t="n">
+        <v>0</v>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Srishti Michael</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Week 3 (9/18)</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>9/18</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
+        </is>
+      </c>
+      <c r="E193" t="n">
+        <v>0</v>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Srishti Michael</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Week 4 (9/25)</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>9/25</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Payer: History, Overview, ACA and Services</t>
+        </is>
+      </c>
+      <c r="E194" t="n">
+        <v>0</v>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Srishti Michael</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Week 5 (10/2)</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>10/2</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Payer: Medicare and Medicaid</t>
+        </is>
+      </c>
+      <c r="E195" t="n">
+        <v>0</v>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Srishti Michael</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Week 6 (10/9)</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>10/9</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Provider: History, Types and Challenges</t>
+        </is>
+      </c>
+      <c r="E196" t="n">
+        <v>0</v>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Srishti Michael</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Week 7 (10/16)</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>10/16</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
+        </is>
+      </c>
+      <c r="E197" t="n">
+        <v>0</v>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Srishti Michael</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Week 8 (10/23)</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>10/23</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Government: Policies and regulations, Social Determinants of Health</t>
+        </is>
+      </c>
+      <c r="E198" t="n">
+        <v>0</v>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Srishti Michael</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Week 9 (10/30)</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>10/30</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Mental, Behavioral Health &amp; Substance Abuse</t>
+        </is>
+      </c>
+      <c r="E199" t="n">
+        <v>3</v>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Varsha Murli Chhabria</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Week 1 (9/4)</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>9/4</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>U.S. Healthcare Ecosystem Overview and History</t>
+        </is>
+      </c>
+      <c r="E200" t="n">
+        <v>2</v>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Varsha Murli Chhabria</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Week 10 (11/6)</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>11/6</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Medicalization, Life Sciences and Alternative Medicine</t>
+        </is>
+      </c>
+      <c r="E201" t="n">
+        <v>2</v>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Varsha Murli Chhabria</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Week 11 (11/13)</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>11/13</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Healthcare Around the World, Fixing Healthcare</t>
+        </is>
+      </c>
+      <c r="E202" t="n">
+        <v>1</v>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Varsha Murli Chhabria</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Week 2 (9/11)</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>9/11</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
+        </is>
+      </c>
+      <c r="E203" t="n">
+        <v>1</v>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Varsha Murli Chhabria</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Week 3 (9/18)</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>9/18</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
+        </is>
+      </c>
+      <c r="E204" t="n">
+        <v>1</v>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Varsha Murli Chhabria</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Week 4 (9/25)</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>9/25</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Payer: History, Overview, ACA and Services</t>
+        </is>
+      </c>
+      <c r="E205" t="n">
+        <v>0</v>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Varsha Murli Chhabria</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Week 5 (10/2)</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>10/2</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Payer: Medicare and Medicaid</t>
+        </is>
+      </c>
+      <c r="E206" t="n">
+        <v>3</v>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Varsha Murli Chhabria</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Week 6 (10/9)</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>10/9</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Provider: History, Types and Challenges</t>
+        </is>
+      </c>
+      <c r="E207" t="n">
+        <v>0</v>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Varsha Murli Chhabria</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Week 7 (10/16)</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>10/16</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
+        </is>
+      </c>
+      <c r="E208" t="n">
+        <v>2</v>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Varsha Murli Chhabria</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Week 8 (10/23)</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>10/23</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Government: Policies and regulations, Social Determinants of Health</t>
+        </is>
+      </c>
+      <c r="E209" t="n">
+        <v>1</v>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Varsha Murli Chhabria</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Week 9 (10/30)</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>10/30</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Mental, Behavioral Health &amp; Substance Abuse</t>
+        </is>
+      </c>
+      <c r="E210" t="n">
+        <v>1</v>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
           <t>Wesley Tey</t>
         </is>
       </c>
-      <c r="B161" t="inlineStr">
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Week 1 (9/4)</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>9/4</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>U.S. Healthcare Ecosystem Overview and History</t>
+        </is>
+      </c>
+      <c r="E211" t="n">
+        <v>2</v>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Wesley Tey</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Week 10 (11/6)</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>11/6</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Medicalization, Life Sciences and Alternative Medicine</t>
+        </is>
+      </c>
+      <c r="E212" t="n">
+        <v>1</v>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Wesley Tey</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Week 11 (11/13)</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>11/13</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Healthcare Around the World, Fixing Healthcare</t>
+        </is>
+      </c>
+      <c r="E213" t="n">
+        <v>1</v>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Wesley Tey</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Week 2 (9/11)</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>9/11</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
+        </is>
+      </c>
+      <c r="E214" t="n">
+        <v>1</v>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Wesley Tey</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Week 3 (9/18)</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>9/18</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
+        </is>
+      </c>
+      <c r="E215" t="n">
+        <v>1</v>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Wesley Tey</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Week 4 (9/25)</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>9/25</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>Payer: History, Overview, ACA and Services</t>
+        </is>
+      </c>
+      <c r="E216" t="n">
+        <v>0</v>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Wesley Tey</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Week 5 (10/2)</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>10/2</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>Payer: Medicare and Medicaid</t>
+        </is>
+      </c>
+      <c r="E217" t="n">
+        <v>0</v>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Wesley Tey</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Week 6 (10/9)</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>10/9</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Provider: History, Types and Challenges</t>
+        </is>
+      </c>
+      <c r="E218" t="n">
+        <v>4</v>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Wesley Tey</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Week 7 (10/16)</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>10/16</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
+        </is>
+      </c>
+      <c r="E219" t="n">
+        <v>2</v>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Wesley Tey</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
         <is>
           <t>Week 8 (10/23)</t>
         </is>
       </c>
-      <c r="C161" t="inlineStr">
+      <c r="C220" t="inlineStr">
         <is>
           <t>10/23</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr">
+      <c r="D220" t="inlineStr">
         <is>
           <t>Government: Policies and regulations, Social Determinants of Health</t>
         </is>
       </c>
-      <c r="E161" t="n">
+      <c r="E220" t="n">
         <v>2</v>
       </c>
-      <c r="F161" t="inlineStr">
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Wesley Tey</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Week 9 (10/30)</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>10/30</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Mental, Behavioral Health &amp; Substance Abuse</t>
+        </is>
+      </c>
+      <c r="E221" t="n">
+        <v>1</v>
+      </c>
+      <c r="F221" t="inlineStr">
         <is>
           <t>Present</t>
         </is>

--- a/American_Healthcare_Class_Cleaned.xlsx
+++ b/American_Healthcare_Class_Cleaned.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F221"/>
+  <dimension ref="A1:F241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,25 +563,25 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Week 2 (9/11)</t>
+          <t>Week 12 (12/20)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>9/11</t>
+          <t>12/20</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
+          <t>Healthcare Technology, Innovation and Fixing Healthcare</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
     </row>
@@ -593,17 +593,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Week 3 (9/18)</t>
+          <t>Week 2 (9/11)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>9/18</t>
+          <t>9/11</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
+          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -611,7 +611,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -623,17 +623,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Week 4 (9/25)</t>
+          <t>Week 3 (9/18)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>9/25</t>
+          <t>9/18</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Payer: History, Overview, ACA and Services</t>
+          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -653,17 +653,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Week 5 (10/2)</t>
+          <t>Week 4 (9/25)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>10/2</t>
+          <t>9/25</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Payer: Medicare and Medicaid</t>
+          <t>Payer: History, Overview, ACA and Services</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -683,17 +683,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Week 6 (10/9)</t>
+          <t>Week 5 (10/2)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>10/9</t>
+          <t>10/2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Provider: History, Types and Challenges</t>
+          <t>Payer: Medicare and Medicaid</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -713,17 +713,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Week 7 (10/16)</t>
+          <t>Week 6 (10/9)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>10/16</t>
+          <t>10/9</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
+          <t>Provider: History, Types and Challenges</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -743,21 +743,21 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Week 8 (10/23)</t>
+          <t>Week 7 (10/16)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>10/23</t>
+          <t>10/16</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Government: Policies and regulations, Social Determinants of Health</t>
+          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -773,21 +773,21 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Week 9 (10/30)</t>
+          <t>Week 8 (10/23)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>10/30</t>
+          <t>10/23</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Mental, Behavioral Health &amp; Substance Abuse</t>
+          <t>Government: Policies and regulations, Social Determinants of Health</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -798,26 +798,26 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Alisha Ealias</t>
+          <t>Akshay Venkatesh</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Week 1 (9/4)</t>
+          <t>Week 9 (10/30)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>9/4</t>
+          <t>10/30</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>U.S. Healthcare Ecosystem Overview and History</t>
+          <t>Mental, Behavioral Health &amp; Substance Abuse</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -833,21 +833,21 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Week 10 (11/6)</t>
+          <t>Week 1 (9/4)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>11/6</t>
+          <t>9/4</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Medicalization, Life Sciences and Alternative Medicine</t>
+          <t>U.S. Healthcare Ecosystem Overview and History</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -863,21 +863,21 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Week 11 (11/13)</t>
+          <t>Week 10 (11/6)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>11/13</t>
+          <t>11/6</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Healthcare Around the World, Fixing Healthcare</t>
+          <t>Medicalization, Life Sciences and Alternative Medicine</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -893,21 +893,21 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Week 2 (9/11)</t>
+          <t>Week 11 (11/13)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>9/11</t>
+          <t>11/13</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
+          <t>Healthcare Around the World, Fixing Healthcare</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -923,21 +923,21 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Week 3 (9/18)</t>
+          <t>Week 12 (12/20)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>9/18</t>
+          <t>12/20</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
+          <t>Healthcare Technology, Innovation and Fixing Healthcare</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -953,21 +953,21 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Week 4 (9/25)</t>
+          <t>Week 2 (9/11)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>9/25</t>
+          <t>9/11</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Payer: History, Overview, ACA and Services</t>
+          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -983,17 +983,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Week 5 (10/2)</t>
+          <t>Week 3 (9/18)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>10/2</t>
+          <t>9/18</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Payer: Medicare and Medicaid</t>
+          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -1013,21 +1013,21 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Week 6 (10/9)</t>
+          <t>Week 4 (9/25)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>10/9</t>
+          <t>9/25</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Provider: History, Types and Challenges</t>
+          <t>Payer: History, Overview, ACA and Services</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1043,21 +1043,21 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Week 7 (10/16)</t>
+          <t>Week 5 (10/2)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>10/16</t>
+          <t>10/2</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
+          <t>Payer: Medicare and Medicaid</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1073,21 +1073,21 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Week 8 (10/23)</t>
+          <t>Week 6 (10/9)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>10/23</t>
+          <t>10/9</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Government: Policies and regulations, Social Determinants of Health</t>
+          <t>Provider: History, Types and Challenges</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1103,21 +1103,21 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Week 9 (10/30)</t>
+          <t>Week 7 (10/16)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>10/30</t>
+          <t>10/16</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Mental, Behavioral Health &amp; Substance Abuse</t>
+          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1128,56 +1128,56 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Anika Rahman Maria</t>
+          <t>Alisha Ealias</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Week 1 (9/4)</t>
+          <t>Week 8 (10/23)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>9/4</t>
+          <t>10/23</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>U.S. Healthcare Ecosystem Overview and History</t>
+          <t>Government: Policies and regulations, Social Determinants of Health</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Anika Rahman Maria</t>
+          <t>Alisha Ealias</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Week 10 (11/6)</t>
+          <t>Week 9 (10/30)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>11/6</t>
+          <t>10/30</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Medicalization, Life Sciences and Alternative Medicine</t>
+          <t>Mental, Behavioral Health &amp; Substance Abuse</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1193,25 +1193,25 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Week 11 (11/13)</t>
+          <t>Week 1 (9/4)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>11/13</t>
+          <t>9/4</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Healthcare Around the World, Fixing Healthcare</t>
+          <t>U.S. Healthcare Ecosystem Overview and History</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -1223,25 +1223,25 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Week 2 (9/11)</t>
+          <t>Week 10 (11/6)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>9/11</t>
+          <t>11/6</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
+          <t>Medicalization, Life Sciences and Alternative Medicine</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
     </row>
@@ -1253,25 +1253,25 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Week 3 (9/18)</t>
+          <t>Week 11 (11/13)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>9/18</t>
+          <t>11/13</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
+          <t>Healthcare Around the World, Fixing Healthcare</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
     </row>
@@ -1283,21 +1283,21 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Week 4 (9/25)</t>
+          <t>Week 12 (12/20)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>9/25</t>
+          <t>12/20</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Payer: History, Overview, ACA and Services</t>
+          <t>Healthcare Technology, Innovation and Fixing Healthcare</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1313,25 +1313,25 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Week 5 (10/2)</t>
+          <t>Week 2 (9/11)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>10/2</t>
+          <t>9/11</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Payer: Medicare and Medicaid</t>
+          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -1343,17 +1343,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Week 6 (10/9)</t>
+          <t>Week 3 (9/18)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>10/9</t>
+          <t>9/18</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Provider: History, Types and Challenges</t>
+          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -1373,21 +1373,21 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Week 7 (10/16)</t>
+          <t>Week 4 (9/25)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>10/16</t>
+          <t>9/25</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
+          <t>Payer: History, Overview, ACA and Services</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1403,21 +1403,21 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Week 8 (10/23)</t>
+          <t>Week 5 (10/2)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>10/23</t>
+          <t>10/2</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Government: Policies and regulations, Social Determinants of Health</t>
+          <t>Payer: Medicare and Medicaid</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1433,21 +1433,21 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Week 9 (10/30)</t>
+          <t>Week 6 (10/9)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>10/30</t>
+          <t>10/9</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Mental, Behavioral Health &amp; Substance Abuse</t>
+          <t>Provider: History, Types and Challenges</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1458,22 +1458,22 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Astha Gungun Patel</t>
+          <t>Anika Rahman Maria</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Week 1 (9/4)</t>
+          <t>Week 7 (10/16)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>9/4</t>
+          <t>10/16</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>U.S. Healthcare Ecosystem Overview and History</t>
+          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -1488,26 +1488,26 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Astha Gungun Patel</t>
+          <t>Anika Rahman Maria</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Week 10 (11/6)</t>
+          <t>Week 8 (10/23)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>11/6</t>
+          <t>10/23</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Medicalization, Life Sciences and Alternative Medicine</t>
+          <t>Government: Policies and regulations, Social Determinants of Health</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1518,22 +1518,22 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Astha Gungun Patel</t>
+          <t>Anika Rahman Maria</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Week 11 (11/13)</t>
+          <t>Week 9 (10/30)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>11/13</t>
+          <t>10/30</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Healthcare Around the World, Fixing Healthcare</t>
+          <t>Mental, Behavioral Health &amp; Substance Abuse</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -1553,21 +1553,21 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Week 2 (9/11)</t>
+          <t>Week 1 (9/4)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>9/11</t>
+          <t>9/4</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
+          <t>U.S. Healthcare Ecosystem Overview and History</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1583,25 +1583,25 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Week 3 (9/18)</t>
+          <t>Week 10 (11/6)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>9/18</t>
+          <t>11/6</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
+          <t>Medicalization, Life Sciences and Alternative Medicine</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
     </row>
@@ -1613,17 +1613,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Week 4 (9/25)</t>
+          <t>Week 11 (11/13)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>9/25</t>
+          <t>11/13</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Payer: History, Overview, ACA and Services</t>
+          <t>Healthcare Around the World, Fixing Healthcare</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -1643,21 +1643,21 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Week 5 (10/2)</t>
+          <t>Week 12 (12/20)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>10/2</t>
+          <t>12/20</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Payer: Medicare and Medicaid</t>
+          <t>Healthcare Technology, Innovation and Fixing Healthcare</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1673,21 +1673,21 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Week 6 (10/9)</t>
+          <t>Week 2 (9/11)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>10/9</t>
+          <t>9/11</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Provider: History, Types and Challenges</t>
+          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1703,25 +1703,25 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Week 7 (10/16)</t>
+          <t>Week 3 (9/18)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>10/16</t>
+          <t>9/18</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
+          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -1733,17 +1733,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Week 8 (10/23)</t>
+          <t>Week 4 (9/25)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>10/23</t>
+          <t>9/25</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Government: Policies and regulations, Social Determinants of Health</t>
+          <t>Payer: History, Overview, ACA and Services</t>
         </is>
       </c>
       <c r="E44" t="n">
@@ -1763,21 +1763,21 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Week 9 (10/30)</t>
+          <t>Week 5 (10/2)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>10/30</t>
+          <t>10/2</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Mental, Behavioral Health &amp; Substance Abuse</t>
+          <t>Payer: Medicare and Medicaid</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1788,26 +1788,26 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Bhavishya Teki</t>
+          <t>Astha Gungun Patel</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Week 1 (9/4)</t>
+          <t>Week 6 (10/9)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>9/4</t>
+          <t>10/9</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>U.S. Healthcare Ecosystem Overview and History</t>
+          <t>Provider: History, Types and Challenges</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1818,26 +1818,26 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Bhavishya Teki</t>
+          <t>Astha Gungun Patel</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Week 10 (11/6)</t>
+          <t>Week 7 (10/16)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>11/6</t>
+          <t>10/16</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Medicalization, Life Sciences and Alternative Medicine</t>
+          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1848,22 +1848,22 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Bhavishya Teki</t>
+          <t>Astha Gungun Patel</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Week 11 (11/13)</t>
+          <t>Week 8 (10/23)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>11/13</t>
+          <t>10/23</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Healthcare Around the World, Fixing Healthcare</t>
+          <t>Government: Policies and regulations, Social Determinants of Health</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -1878,26 +1878,26 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Bhavishya Teki</t>
+          <t>Astha Gungun Patel</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Week 2 (9/11)</t>
+          <t>Week 9 (10/30)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>9/11</t>
+          <t>10/30</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
+          <t>Mental, Behavioral Health &amp; Substance Abuse</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -1913,21 +1913,21 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Week 3 (9/18)</t>
+          <t>Week 1 (9/4)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>9/18</t>
+          <t>9/4</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
+          <t>U.S. Healthcare Ecosystem Overview and History</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -1943,21 +1943,21 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Week 4 (9/25)</t>
+          <t>Week 10 (11/6)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>9/25</t>
+          <t>11/6</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Payer: History, Overview, ACA and Services</t>
+          <t>Medicalization, Life Sciences and Alternative Medicine</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -1973,21 +1973,21 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Week 5 (10/2)</t>
+          <t>Week 11 (11/13)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>10/2</t>
+          <t>11/13</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Payer: Medicare and Medicaid</t>
+          <t>Healthcare Around the World, Fixing Healthcare</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -2003,21 +2003,21 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Week 6 (10/9)</t>
+          <t>Week 12 (12/20)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>10/9</t>
+          <t>12/20</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Provider: History, Types and Challenges</t>
+          <t>Healthcare Technology, Innovation and Fixing Healthcare</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -2033,21 +2033,21 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Week 7 (10/16)</t>
+          <t>Week 2 (9/11)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>10/16</t>
+          <t>9/11</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
+          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -2063,25 +2063,25 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Week 8 (10/23)</t>
+          <t>Week 3 (9/18)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>10/23</t>
+          <t>9/18</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Government: Policies and regulations, Social Determinants of Health</t>
+          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Excused</t>
+          <t>Present</t>
         </is>
       </c>
     </row>
@@ -2093,21 +2093,21 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Week 9 (10/30)</t>
+          <t>Week 4 (9/25)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>10/30</t>
+          <t>9/25</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Mental, Behavioral Health &amp; Substance Abuse</t>
+          <t>Payer: History, Overview, ACA and Services</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -2118,26 +2118,26 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Bilegt Batkhorol</t>
+          <t>Bhavishya Teki</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Week 1 (9/4)</t>
+          <t>Week 5 (10/2)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>9/4</t>
+          <t>10/2</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>U.S. Healthcare Ecosystem Overview and History</t>
+          <t>Payer: Medicare and Medicaid</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -2148,26 +2148,26 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Bilegt Batkhorol</t>
+          <t>Bhavishya Teki</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Week 10 (11/6)</t>
+          <t>Week 6 (10/9)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>11/6</t>
+          <t>10/9</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Medicalization, Life Sciences and Alternative Medicine</t>
+          <t>Provider: History, Types and Challenges</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -2178,22 +2178,22 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Bilegt Batkhorol</t>
+          <t>Bhavishya Teki</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Week 11 (11/13)</t>
+          <t>Week 7 (10/16)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>11/13</t>
+          <t>10/16</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Healthcare Around the World, Fixing Healthcare</t>
+          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -2208,22 +2208,22 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Bilegt Batkhorol</t>
+          <t>Bhavishya Teki</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Week 2 (9/11)</t>
+          <t>Week 8 (10/23)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>9/11</t>
+          <t>10/23</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
+          <t>Government: Policies and regulations, Social Determinants of Health</t>
         </is>
       </c>
       <c r="E60" t="n">
@@ -2231,29 +2231,29 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Excused</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Bilegt Batkhorol</t>
+          <t>Bhavishya Teki</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Week 3 (9/18)</t>
+          <t>Week 9 (10/30)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>9/18</t>
+          <t>10/30</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
+          <t>Mental, Behavioral Health &amp; Substance Abuse</t>
         </is>
       </c>
       <c r="E61" t="n">
@@ -2273,21 +2273,21 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Week 4 (9/25)</t>
+          <t>Week 1 (9/4)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>9/25</t>
+          <t>9/4</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Payer: History, Overview, ACA and Services</t>
+          <t>U.S. Healthcare Ecosystem Overview and History</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -2303,21 +2303,21 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Week 5 (10/2)</t>
+          <t>Week 10 (11/6)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>10/2</t>
+          <t>11/6</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Payer: Medicare and Medicaid</t>
+          <t>Medicalization, Life Sciences and Alternative Medicine</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -2333,21 +2333,21 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Week 6 (10/9)</t>
+          <t>Week 11 (11/13)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>10/9</t>
+          <t>11/13</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Provider: History, Types and Challenges</t>
+          <t>Healthcare Around the World, Fixing Healthcare</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -2363,17 +2363,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Week 7 (10/16)</t>
+          <t>Week 12 (12/20)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>10/16</t>
+          <t>12/20</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
+          <t>Healthcare Technology, Innovation and Fixing Healthcare</t>
         </is>
       </c>
       <c r="E65" t="n">
@@ -2393,17 +2393,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Week 8 (10/23)</t>
+          <t>Week 2 (9/11)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>10/23</t>
+          <t>9/11</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Government: Policies and regulations, Social Determinants of Health</t>
+          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
         </is>
       </c>
       <c r="E66" t="n">
@@ -2423,21 +2423,21 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Week 9 (10/30)</t>
+          <t>Week 3 (9/18)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>10/30</t>
+          <t>9/18</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Mental, Behavioral Health &amp; Substance Abuse</t>
+          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -2448,26 +2448,26 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Deepika Joyce Chintha</t>
+          <t>Bilegt Batkhorol</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Week 1 (9/4)</t>
+          <t>Week 4 (9/25)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>9/4</t>
+          <t>9/25</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>U.S. Healthcare Ecosystem Overview and History</t>
+          <t>Payer: History, Overview, ACA and Services</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -2478,26 +2478,26 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Deepika Joyce Chintha</t>
+          <t>Bilegt Batkhorol</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Week 10 (11/6)</t>
+          <t>Week 5 (10/2)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>11/6</t>
+          <t>10/2</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Medicalization, Life Sciences and Alternative Medicine</t>
+          <t>Payer: Medicare and Medicaid</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -2508,26 +2508,26 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Deepika Joyce Chintha</t>
+          <t>Bilegt Batkhorol</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Week 11 (11/13)</t>
+          <t>Week 6 (10/9)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>11/13</t>
+          <t>10/9</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Healthcare Around the World, Fixing Healthcare</t>
+          <t>Provider: History, Types and Challenges</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -2538,52 +2538,52 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Deepika Joyce Chintha</t>
+          <t>Bilegt Batkhorol</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Week 2 (9/11)</t>
+          <t>Week 7 (10/16)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>9/11</t>
+          <t>10/16</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
+          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Excused</t>
+          <t>Present</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Deepika Joyce Chintha</t>
+          <t>Bilegt Batkhorol</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Week 3 (9/18)</t>
+          <t>Week 8 (10/23)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>9/18</t>
+          <t>10/23</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
+          <t>Government: Policies and regulations, Social Determinants of Health</t>
         </is>
       </c>
       <c r="E72" t="n">
@@ -2598,26 +2598,26 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Deepika Joyce Chintha</t>
+          <t>Bilegt Batkhorol</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Week 4 (9/25)</t>
+          <t>Week 9 (10/30)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>9/25</t>
+          <t>10/30</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Payer: History, Overview, ACA and Services</t>
+          <t>Mental, Behavioral Health &amp; Substance Abuse</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -2633,17 +2633,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Week 5 (10/2)</t>
+          <t>Week 1 (9/4)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>10/2</t>
+          <t>9/4</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Payer: Medicare and Medicaid</t>
+          <t>U.S. Healthcare Ecosystem Overview and History</t>
         </is>
       </c>
       <c r="E74" t="n">
@@ -2663,21 +2663,21 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Week 6 (10/9)</t>
+          <t>Week 10 (11/6)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>10/9</t>
+          <t>11/6</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Provider: History, Types and Challenges</t>
+          <t>Medicalization, Life Sciences and Alternative Medicine</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -2693,21 +2693,21 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Week 7 (10/16)</t>
+          <t>Week 11 (11/13)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>10/16</t>
+          <t>11/13</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
+          <t>Healthcare Around the World, Fixing Healthcare</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -2723,21 +2723,21 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Week 8 (10/23)</t>
+          <t>Week 12 (12/20)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>10/23</t>
+          <t>12/20</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Government: Policies and regulations, Social Determinants of Health</t>
+          <t>Healthcare Technology, Innovation and Fixing Healthcare</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -2753,51 +2753,51 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Week 9 (10/30)</t>
+          <t>Week 2 (9/11)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>10/30</t>
+          <t>9/11</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Mental, Behavioral Health &amp; Substance Abuse</t>
+          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Excused</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Julia Key</t>
+          <t>Deepika Joyce Chintha</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Week 1 (9/4)</t>
+          <t>Week 3 (9/18)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>9/4</t>
+          <t>9/18</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>U.S. Healthcare Ecosystem Overview and History</t>
+          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -2808,26 +2808,26 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Julia Key</t>
+          <t>Deepika Joyce Chintha</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Week 10 (11/6)</t>
+          <t>Week 4 (9/25)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>11/6</t>
+          <t>9/25</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Medicalization, Life Sciences and Alternative Medicine</t>
+          <t>Payer: History, Overview, ACA and Services</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -2838,26 +2838,26 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Julia Key</t>
+          <t>Deepika Joyce Chintha</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Week 11 (11/13)</t>
+          <t>Week 5 (10/2)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>11/13</t>
+          <t>10/2</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Healthcare Around the World, Fixing Healthcare</t>
+          <t>Payer: Medicare and Medicaid</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -2868,22 +2868,22 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Julia Key</t>
+          <t>Deepika Joyce Chintha</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Week 2 (9/11)</t>
+          <t>Week 6 (10/9)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>9/11</t>
+          <t>10/9</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
+          <t>Provider: History, Types and Challenges</t>
         </is>
       </c>
       <c r="E82" t="n">
@@ -2891,33 +2891,33 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Excused</t>
+          <t>Present</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Julia Key</t>
+          <t>Deepika Joyce Chintha</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Week 3 (9/18)</t>
+          <t>Week 7 (10/16)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>9/18</t>
+          <t>10/16</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
+          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -2928,26 +2928,26 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Julia Key</t>
+          <t>Deepika Joyce Chintha</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Week 4 (9/25)</t>
+          <t>Week 8 (10/23)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>9/25</t>
+          <t>10/23</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Payer: History, Overview, ACA and Services</t>
+          <t>Government: Policies and regulations, Social Determinants of Health</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -2958,26 +2958,26 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Julia Key</t>
+          <t>Deepika Joyce Chintha</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Week 5 (10/2)</t>
+          <t>Week 9 (10/30)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>10/2</t>
+          <t>10/30</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Payer: Medicare and Medicaid</t>
+          <t>Mental, Behavioral Health &amp; Substance Abuse</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -2993,21 +2993,21 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Week 6 (10/9)</t>
+          <t>Week 1 (9/4)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>10/9</t>
+          <t>9/4</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Provider: History, Types and Challenges</t>
+          <t>U.S. Healthcare Ecosystem Overview and History</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -3023,21 +3023,21 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Week 7 (10/16)</t>
+          <t>Week 10 (11/6)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>10/16</t>
+          <t>11/6</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
+          <t>Medicalization, Life Sciences and Alternative Medicine</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -3053,21 +3053,21 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Week 8 (10/23)</t>
+          <t>Week 11 (11/13)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>10/23</t>
+          <t>11/13</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Government: Policies and regulations, Social Determinants of Health</t>
+          <t>Healthcare Around the World, Fixing Healthcare</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -3083,81 +3083,81 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Week 9 (10/30)</t>
+          <t>Week 12 (12/20)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>10/30</t>
+          <t>12/20</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Mental, Behavioral Health &amp; Substance Abuse</t>
+          <t>Healthcare Technology, Innovation and Fixing Healthcare</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Excused</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Kai Ern Caius Lee</t>
+          <t>Julia Key</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Week 1 (9/4)</t>
+          <t>Week 2 (9/11)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>9/4</t>
+          <t>9/11</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>U.S. Healthcare Ecosystem Overview and History</t>
+          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Excused</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Kai Ern Caius Lee</t>
+          <t>Julia Key</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Week 10 (11/6)</t>
+          <t>Week 3 (9/18)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>11/6</t>
+          <t>9/18</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Medicalization, Life Sciences and Alternative Medicine</t>
+          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -3168,26 +3168,26 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Kai Ern Caius Lee</t>
+          <t>Julia Key</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Week 11 (11/13)</t>
+          <t>Week 4 (9/25)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>11/13</t>
+          <t>9/25</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Healthcare Around the World, Fixing Healthcare</t>
+          <t>Payer: History, Overview, ACA and Services</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -3198,26 +3198,26 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Kai Ern Caius Lee</t>
+          <t>Julia Key</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Week 2 (9/11)</t>
+          <t>Week 5 (10/2)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>9/11</t>
+          <t>10/2</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
+          <t>Payer: Medicare and Medicaid</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -3228,26 +3228,26 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Kai Ern Caius Lee</t>
+          <t>Julia Key</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Week 3 (9/18)</t>
+          <t>Week 6 (10/9)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>9/18</t>
+          <t>10/9</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
+          <t>Provider: History, Types and Challenges</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -3258,26 +3258,26 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Kai Ern Caius Lee</t>
+          <t>Julia Key</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Week 4 (9/25)</t>
+          <t>Week 7 (10/16)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>9/25</t>
+          <t>10/16</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Payer: History, Overview, ACA and Services</t>
+          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -3288,26 +3288,26 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Kai Ern Caius Lee</t>
+          <t>Julia Key</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Week 5 (10/2)</t>
+          <t>Week 8 (10/23)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>10/2</t>
+          <t>10/23</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Payer: Medicare and Medicaid</t>
+          <t>Government: Policies and regulations, Social Determinants of Health</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -3318,26 +3318,26 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Kai Ern Caius Lee</t>
+          <t>Julia Key</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Week 6 (10/9)</t>
+          <t>Week 9 (10/30)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>10/9</t>
+          <t>10/30</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Provider: History, Types and Challenges</t>
+          <t>Mental, Behavioral Health &amp; Substance Abuse</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -3353,17 +3353,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Week 7 (10/16)</t>
+          <t>Week 1 (9/4)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>10/16</t>
+          <t>9/4</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
+          <t>U.S. Healthcare Ecosystem Overview and History</t>
         </is>
       </c>
       <c r="E98" t="n">
@@ -3383,21 +3383,21 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Week 8 (10/23)</t>
+          <t>Week 10 (11/6)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>10/23</t>
+          <t>11/6</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Government: Policies and regulations, Social Determinants of Health</t>
+          <t>Medicalization, Life Sciences and Alternative Medicine</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -3413,21 +3413,21 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Week 9 (10/30)</t>
+          <t>Week 11 (11/13)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>10/30</t>
+          <t>11/13</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Mental, Behavioral Health &amp; Substance Abuse</t>
+          <t>Healthcare Around the World, Fixing Healthcare</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -3438,26 +3438,26 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Kirti Gautam</t>
+          <t>Kai Ern Caius Lee</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Week 1 (9/4)</t>
+          <t>Week 12 (12/20)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>9/4</t>
+          <t>12/20</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>U.S. Healthcare Ecosystem Overview and History</t>
+          <t>Healthcare Technology, Innovation and Fixing Healthcare</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -3468,26 +3468,26 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Kirti Gautam</t>
+          <t>Kai Ern Caius Lee</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Week 10 (11/6)</t>
+          <t>Week 2 (9/11)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>11/6</t>
+          <t>9/11</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Medicalization, Life Sciences and Alternative Medicine</t>
+          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -3498,22 +3498,22 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Kirti Gautam</t>
+          <t>Kai Ern Caius Lee</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Week 11 (11/13)</t>
+          <t>Week 3 (9/18)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>11/13</t>
+          <t>9/18</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Healthcare Around the World, Fixing Healthcare</t>
+          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
         </is>
       </c>
       <c r="E103" t="n">
@@ -3528,26 +3528,26 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Kirti Gautam</t>
+          <t>Kai Ern Caius Lee</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Week 2 (9/11)</t>
+          <t>Week 4 (9/25)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>9/11</t>
+          <t>9/25</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
+          <t>Payer: History, Overview, ACA and Services</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -3558,26 +3558,26 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Kirti Gautam</t>
+          <t>Kai Ern Caius Lee</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Week 3 (9/18)</t>
+          <t>Week 5 (10/2)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>9/18</t>
+          <t>10/2</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
+          <t>Payer: Medicare and Medicaid</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -3588,26 +3588,26 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Kirti Gautam</t>
+          <t>Kai Ern Caius Lee</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Week 4 (9/25)</t>
+          <t>Week 6 (10/9)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>9/25</t>
+          <t>10/9</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Payer: History, Overview, ACA and Services</t>
+          <t>Provider: History, Types and Challenges</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -3618,26 +3618,26 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Kirti Gautam</t>
+          <t>Kai Ern Caius Lee</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Week 5 (10/2)</t>
+          <t>Week 7 (10/16)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>10/2</t>
+          <t>10/16</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Payer: Medicare and Medicaid</t>
+          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -3648,26 +3648,26 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Kirti Gautam</t>
+          <t>Kai Ern Caius Lee</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Week 6 (10/9)</t>
+          <t>Week 8 (10/23)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>10/9</t>
+          <t>10/23</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Provider: History, Types and Challenges</t>
+          <t>Government: Policies and regulations, Social Determinants of Health</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -3678,26 +3678,26 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Kirti Gautam</t>
+          <t>Kai Ern Caius Lee</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Week 7 (10/16)</t>
+          <t>Week 9 (10/30)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>10/16</t>
+          <t>10/30</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
+          <t>Mental, Behavioral Health &amp; Substance Abuse</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -3713,17 +3713,17 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Week 8 (10/23)</t>
+          <t>Week 1 (9/4)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>10/23</t>
+          <t>9/4</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Government: Policies and regulations, Social Determinants of Health</t>
+          <t>U.S. Healthcare Ecosystem Overview and History</t>
         </is>
       </c>
       <c r="E110" t="n">
@@ -3743,21 +3743,21 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Week 9 (10/30)</t>
+          <t>Week 10 (11/6)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>10/30</t>
+          <t>11/6</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Mental, Behavioral Health &amp; Substance Abuse</t>
+          <t>Medicalization, Life Sciences and Alternative Medicine</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -3768,26 +3768,26 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Mary O'Reilly</t>
+          <t>Kirti Gautam</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Week 1 (9/4)</t>
+          <t>Week 11 (11/13)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>9/4</t>
+          <t>11/13</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>U.S. Healthcare Ecosystem Overview and History</t>
+          <t>Healthcare Around the World, Fixing Healthcare</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -3798,26 +3798,26 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Mary O'Reilly</t>
+          <t>Kirti Gautam</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Week 10 (11/6)</t>
+          <t>Week 12 (12/20)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>11/6</t>
+          <t>12/20</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Medicalization, Life Sciences and Alternative Medicine</t>
+          <t>Healthcare Technology, Innovation and Fixing Healthcare</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -3828,22 +3828,22 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Mary O'Reilly</t>
+          <t>Kirti Gautam</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Week 11 (11/13)</t>
+          <t>Week 2 (9/11)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>11/13</t>
+          <t>9/11</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Healthcare Around the World, Fixing Healthcare</t>
+          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
         </is>
       </c>
       <c r="E114" t="n">
@@ -3858,26 +3858,26 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Mary O'Reilly</t>
+          <t>Kirti Gautam</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Week 2 (9/11)</t>
+          <t>Week 3 (9/18)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>9/11</t>
+          <t>9/18</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
+          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -3888,26 +3888,26 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Mary O'Reilly</t>
+          <t>Kirti Gautam</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Week 3 (9/18)</t>
+          <t>Week 4 (9/25)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>9/18</t>
+          <t>9/25</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
+          <t>Payer: History, Overview, ACA and Services</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -3918,22 +3918,22 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Mary O'Reilly</t>
+          <t>Kirti Gautam</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Week 4 (9/25)</t>
+          <t>Week 5 (10/2)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>9/25</t>
+          <t>10/2</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Payer: History, Overview, ACA and Services</t>
+          <t>Payer: Medicare and Medicaid</t>
         </is>
       </c>
       <c r="E117" t="n">
@@ -3948,26 +3948,26 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Mary O'Reilly</t>
+          <t>Kirti Gautam</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Week 5 (10/2)</t>
+          <t>Week 6 (10/9)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>10/2</t>
+          <t>10/9</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Payer: Medicare and Medicaid</t>
+          <t>Provider: History, Types and Challenges</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -3978,26 +3978,26 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Mary O'Reilly</t>
+          <t>Kirti Gautam</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Week 6 (10/9)</t>
+          <t>Week 7 (10/16)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>10/9</t>
+          <t>10/16</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Provider: History, Types and Challenges</t>
+          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -4008,26 +4008,26 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Mary O'Reilly</t>
+          <t>Kirti Gautam</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Week 7 (10/16)</t>
+          <t>Week 8 (10/23)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>10/16</t>
+          <t>10/23</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
+          <t>Government: Policies and regulations, Social Determinants of Health</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -4038,26 +4038,26 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Mary O'Reilly</t>
+          <t>Kirti Gautam</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Week 8 (10/23)</t>
+          <t>Week 9 (10/30)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>10/23</t>
+          <t>10/30</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Government: Policies and regulations, Social Determinants of Health</t>
+          <t>Mental, Behavioral Health &amp; Substance Abuse</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -4073,21 +4073,21 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Week 9 (10/30)</t>
+          <t>Week 1 (9/4)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>10/30</t>
+          <t>9/4</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Mental, Behavioral Health &amp; Substance Abuse</t>
+          <t>U.S. Healthcare Ecosystem Overview and History</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -4098,22 +4098,22 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Michael Madden</t>
+          <t>Mary O'Reilly</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Week 1 (9/4)</t>
+          <t>Week 10 (11/6)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>9/4</t>
+          <t>11/6</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>U.S. Healthcare Ecosystem Overview and History</t>
+          <t>Medicalization, Life Sciences and Alternative Medicine</t>
         </is>
       </c>
       <c r="E123" t="n">
@@ -4128,26 +4128,26 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Michael Madden</t>
+          <t>Mary O'Reilly</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Week 10 (11/6)</t>
+          <t>Week 11 (11/13)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>11/6</t>
+          <t>11/13</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Medicalization, Life Sciences and Alternative Medicine</t>
+          <t>Healthcare Around the World, Fixing Healthcare</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
@@ -4158,26 +4158,26 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Michael Madden</t>
+          <t>Mary O'Reilly</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Week 11 (11/13)</t>
+          <t>Week 12 (12/20)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>11/13</t>
+          <t>12/20</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Healthcare Around the World, Fixing Healthcare</t>
+          <t>Healthcare Technology, Innovation and Fixing Healthcare</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -4188,7 +4188,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Michael Madden</t>
+          <t>Mary O'Reilly</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -4207,7 +4207,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
@@ -4218,7 +4218,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Michael Madden</t>
+          <t>Mary O'Reilly</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -4248,7 +4248,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Michael Madden</t>
+          <t>Mary O'Reilly</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Michael Madden</t>
+          <t>Mary O'Reilly</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -4297,18 +4297,18 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Excused</t>
+          <t>Present</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Michael Madden</t>
+          <t>Mary O'Reilly</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Michael Madden</t>
+          <t>Mary O'Reilly</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -4357,7 +4357,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Michael Madden</t>
+          <t>Mary O'Reilly</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -4387,7 +4387,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Michael Madden</t>
+          <t>Mary O'Reilly</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -4417,7 +4417,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Prakruthi Jayant</t>
+          <t>Michael Madden</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -4458,7 +4458,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Prakruthi Jayant</t>
+          <t>Michael Madden</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -4477,7 +4477,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
@@ -4488,7 +4488,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Prakruthi Jayant</t>
+          <t>Michael Madden</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -4507,7 +4507,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -4518,26 +4518,26 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Prakruthi Jayant</t>
+          <t>Michael Madden</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Week 2 (9/11)</t>
+          <t>Week 12 (12/20)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>9/11</t>
+          <t>12/20</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
+          <t>Healthcare Technology, Innovation and Fixing Healthcare</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
@@ -4548,26 +4548,26 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Prakruthi Jayant</t>
+          <t>Michael Madden</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Week 3 (9/18)</t>
+          <t>Week 2 (9/11)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>9/18</t>
+          <t>9/11</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
+          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -4578,26 +4578,26 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Prakruthi Jayant</t>
+          <t>Michael Madden</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Week 4 (9/25)</t>
+          <t>Week 3 (9/18)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>9/25</t>
+          <t>9/18</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Payer: History, Overview, ACA and Services</t>
+          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -4608,26 +4608,26 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Prakruthi Jayant</t>
+          <t>Michael Madden</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Week 5 (10/2)</t>
+          <t>Week 4 (9/25)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>10/2</t>
+          <t>9/25</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Payer: Medicare and Medicaid</t>
+          <t>Payer: History, Overview, ACA and Services</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
@@ -4638,22 +4638,22 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Prakruthi Jayant</t>
+          <t>Michael Madden</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Week 6 (10/9)</t>
+          <t>Week 5 (10/2)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>10/9</t>
+          <t>10/2</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Provider: History, Types and Challenges</t>
+          <t>Payer: Medicare and Medicaid</t>
         </is>
       </c>
       <c r="E141" t="n">
@@ -4661,33 +4661,33 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Excused</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Prakruthi Jayant</t>
+          <t>Michael Madden</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Week 7 (10/16)</t>
+          <t>Week 6 (10/9)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>10/16</t>
+          <t>10/9</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
+          <t>Provider: History, Types and Challenges</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -4698,26 +4698,26 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Prakruthi Jayant</t>
+          <t>Michael Madden</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Week 8 (10/23)</t>
+          <t>Week 7 (10/16)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>10/23</t>
+          <t>10/16</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Government: Policies and regulations, Social Determinants of Health</t>
+          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -4728,26 +4728,26 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Prakruthi Jayant</t>
+          <t>Michael Madden</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Week 9 (10/30)</t>
+          <t>Week 8 (10/23)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>10/30</t>
+          <t>10/23</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Mental, Behavioral Health &amp; Substance Abuse</t>
+          <t>Government: Policies and regulations, Social Determinants of Health</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -4758,26 +4758,26 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Priyanka Umesh Patil</t>
+          <t>Michael Madden</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Week 1 (9/4)</t>
+          <t>Week 9 (10/30)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>9/4</t>
+          <t>10/30</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>U.S. Healthcare Ecosystem Overview and History</t>
+          <t>Mental, Behavioral Health &amp; Substance Abuse</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
@@ -4788,22 +4788,22 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Priyanka Umesh Patil</t>
+          <t>Prakruthi Jayant</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Week 10 (11/6)</t>
+          <t>Week 1 (9/4)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>11/6</t>
+          <t>9/4</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Medicalization, Life Sciences and Alternative Medicine</t>
+          <t>U.S. Healthcare Ecosystem Overview and History</t>
         </is>
       </c>
       <c r="E146" t="n">
@@ -4818,26 +4818,26 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Priyanka Umesh Patil</t>
+          <t>Prakruthi Jayant</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Week 11 (11/13)</t>
+          <t>Week 10 (11/6)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>11/13</t>
+          <t>11/6</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Healthcare Around the World, Fixing Healthcare</t>
+          <t>Medicalization, Life Sciences and Alternative Medicine</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
@@ -4848,22 +4848,22 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Priyanka Umesh Patil</t>
+          <t>Prakruthi Jayant</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Week 2 (9/11)</t>
+          <t>Week 11 (11/13)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>9/11</t>
+          <t>11/13</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
+          <t>Healthcare Around the World, Fixing Healthcare</t>
         </is>
       </c>
       <c r="E148" t="n">
@@ -4878,52 +4878,52 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Priyanka Umesh Patil</t>
+          <t>Prakruthi Jayant</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Week 3 (9/18)</t>
+          <t>Week 12 (12/20)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>9/18</t>
+          <t>12/20</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
+          <t>Healthcare Technology, Innovation and Fixing Healthcare</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Priyanka Umesh Patil</t>
+          <t>Prakruthi Jayant</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Week 4 (9/25)</t>
+          <t>Week 2 (9/11)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>9/25</t>
+          <t>9/11</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Payer: History, Overview, ACA and Services</t>
+          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
         </is>
       </c>
       <c r="E150" t="n">
@@ -4938,26 +4938,26 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Priyanka Umesh Patil</t>
+          <t>Prakruthi Jayant</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Week 5 (10/2)</t>
+          <t>Week 3 (9/18)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>10/2</t>
+          <t>9/18</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Payer: Medicare and Medicaid</t>
+          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -4968,22 +4968,22 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Priyanka Umesh Patil</t>
+          <t>Prakruthi Jayant</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Week 6 (10/9)</t>
+          <t>Week 4 (9/25)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>10/9</t>
+          <t>9/25</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Provider: History, Types and Challenges</t>
+          <t>Payer: History, Overview, ACA and Services</t>
         </is>
       </c>
       <c r="E152" t="n">
@@ -4998,26 +4998,26 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Priyanka Umesh Patil</t>
+          <t>Prakruthi Jayant</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Week 7 (10/16)</t>
+          <t>Week 5 (10/2)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>10/16</t>
+          <t>10/2</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
+          <t>Payer: Medicare and Medicaid</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
@@ -5028,26 +5028,26 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Priyanka Umesh Patil</t>
+          <t>Prakruthi Jayant</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Week 8 (10/23)</t>
+          <t>Week 6 (10/9)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>10/23</t>
+          <t>10/9</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Government: Policies and regulations, Social Determinants of Health</t>
+          <t>Provider: History, Types and Challenges</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -5058,26 +5058,26 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Priyanka Umesh Patil</t>
+          <t>Prakruthi Jayant</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Week 9 (10/30)</t>
+          <t>Week 7 (10/16)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>10/30</t>
+          <t>10/16</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Mental, Behavioral Health &amp; Substance Abuse</t>
+          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
@@ -5088,56 +5088,56 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Priyanshi Patel</t>
+          <t>Prakruthi Jayant</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Week 1 (9/4)</t>
+          <t>Week 8 (10/23)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>9/4</t>
+          <t>10/23</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>U.S. Healthcare Ecosystem Overview and History</t>
+          <t>Government: Policies and regulations, Social Determinants of Health</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Excused</t>
+          <t>Present</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Priyanshi Patel</t>
+          <t>Prakruthi Jayant</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Week 10 (11/6)</t>
+          <t>Week 9 (10/30)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>11/6</t>
+          <t>10/30</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Medicalization, Life Sciences and Alternative Medicine</t>
+          <t>Mental, Behavioral Health &amp; Substance Abuse</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
@@ -5148,86 +5148,86 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Priyanshi Patel</t>
+          <t>Priyanka Umesh Patil</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Week 11 (11/13)</t>
+          <t>Week 1 (9/4)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>11/13</t>
+          <t>9/4</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Healthcare Around the World, Fixing Healthcare</t>
+          <t>U.S. Healthcare Ecosystem Overview and History</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Excused</t>
+          <t>Present</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Priyanshi Patel</t>
+          <t>Priyanka Umesh Patil</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Week 2 (9/11)</t>
+          <t>Week 10 (11/6)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>9/11</t>
+          <t>11/6</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
+          <t>Medicalization, Life Sciences and Alternative Medicine</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Excused</t>
+          <t>Present</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Priyanshi Patel</t>
+          <t>Priyanka Umesh Patil</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Week 3 (9/18)</t>
+          <t>Week 11 (11/13)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>9/18</t>
+          <t>11/13</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
+          <t>Healthcare Around the World, Fixing Healthcare</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -5238,26 +5238,26 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Priyanshi Patel</t>
+          <t>Priyanka Umesh Patil</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Week 4 (9/25)</t>
+          <t>Week 12 (12/20)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>9/25</t>
+          <t>12/20</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Payer: History, Overview, ACA and Services</t>
+          <t>Healthcare Technology, Innovation and Fixing Healthcare</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
@@ -5268,56 +5268,56 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Priyanshi Patel</t>
+          <t>Priyanka Umesh Patil</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Week 5 (10/2)</t>
+          <t>Week 2 (9/11)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>10/2</t>
+          <t>9/11</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Payer: Medicare and Medicaid</t>
+          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Excused</t>
+          <t>Present</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Priyanshi Patel</t>
+          <t>Priyanka Umesh Patil</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Week 6 (10/9)</t>
+          <t>Week 3 (9/18)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>10/9</t>
+          <t>9/18</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Provider: History, Types and Challenges</t>
+          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
@@ -5328,22 +5328,22 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Priyanshi Patel</t>
+          <t>Priyanka Umesh Patil</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Week 7 (10/16)</t>
+          <t>Week 4 (9/25)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>10/16</t>
+          <t>9/25</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
+          <t>Payer: History, Overview, ACA and Services</t>
         </is>
       </c>
       <c r="E164" t="n">
@@ -5358,26 +5358,26 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Priyanshi Patel</t>
+          <t>Priyanka Umesh Patil</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Week 8 (10/23)</t>
+          <t>Week 5 (10/2)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>10/23</t>
+          <t>10/2</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Government: Policies and regulations, Social Determinants of Health</t>
+          <t>Payer: Medicare and Medicaid</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
@@ -5388,26 +5388,26 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Priyanshi Patel</t>
+          <t>Priyanka Umesh Patil</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Week 9 (10/30)</t>
+          <t>Week 6 (10/9)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>10/30</t>
+          <t>10/9</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Mental, Behavioral Health &amp; Substance Abuse</t>
+          <t>Provider: History, Types and Challenges</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
@@ -5418,56 +5418,56 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Samwel Gitundu</t>
+          <t>Priyanka Umesh Patil</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Week 1 (9/4)</t>
+          <t>Week 7 (10/16)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>9/4</t>
+          <t>10/16</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>U.S. Healthcare Ecosystem Overview and History</t>
+          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Excused</t>
+          <t>Present</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Samwel Gitundu</t>
+          <t>Priyanka Umesh Patil</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Week 10 (11/6)</t>
+          <t>Week 8 (10/23)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>11/6</t>
+          <t>10/23</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Medicalization, Life Sciences and Alternative Medicine</t>
+          <t>Government: Policies and regulations, Social Determinants of Health</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -5478,26 +5478,26 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Samwel Gitundu</t>
+          <t>Priyanka Umesh Patil</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Week 11 (11/13)</t>
+          <t>Week 9 (10/30)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>11/13</t>
+          <t>10/30</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Healthcare Around the World, Fixing Healthcare</t>
+          <t>Mental, Behavioral Health &amp; Substance Abuse</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -5508,22 +5508,22 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Samwel Gitundu</t>
+          <t>Priyanshi Patel</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Week 2 (9/11)</t>
+          <t>Week 1 (9/4)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>9/11</t>
+          <t>9/4</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
+          <t>U.S. Healthcare Ecosystem Overview and History</t>
         </is>
       </c>
       <c r="E170" t="n">
@@ -5538,22 +5538,22 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Samwel Gitundu</t>
+          <t>Priyanshi Patel</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Week 3 (9/18)</t>
+          <t>Week 10 (11/6)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>9/18</t>
+          <t>11/6</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
+          <t>Medicalization, Life Sciences and Alternative Medicine</t>
         </is>
       </c>
       <c r="E171" t="n">
@@ -5568,56 +5568,56 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Samwel Gitundu</t>
+          <t>Priyanshi Patel</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Week 4 (9/25)</t>
+          <t>Week 11 (11/13)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>9/25</t>
+          <t>11/13</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Payer: History, Overview, ACA and Services</t>
+          <t>Healthcare Around the World, Fixing Healthcare</t>
         </is>
       </c>
       <c r="E172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Excused</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Samwel Gitundu</t>
+          <t>Priyanshi Patel</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Week 5 (10/2)</t>
+          <t>Week 12 (12/20)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>10/2</t>
+          <t>12/20</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Payer: Medicare and Medicaid</t>
+          <t>Healthcare Technology, Innovation and Fixing Healthcare</t>
         </is>
       </c>
       <c r="E173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -5628,56 +5628,56 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Samwel Gitundu</t>
+          <t>Priyanshi Patel</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Week 6 (10/9)</t>
+          <t>Week 2 (9/11)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>10/9</t>
+          <t>9/11</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Provider: History, Types and Challenges</t>
+          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
         </is>
       </c>
       <c r="E174" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Excused</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Samwel Gitundu</t>
+          <t>Priyanshi Patel</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Week 7 (10/16)</t>
+          <t>Week 3 (9/18)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>10/16</t>
+          <t>9/18</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
+          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -5688,26 +5688,26 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Samwel Gitundu</t>
+          <t>Priyanshi Patel</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Week 8 (10/23)</t>
+          <t>Week 4 (9/25)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>10/23</t>
+          <t>9/25</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Government: Policies and regulations, Social Determinants of Health</t>
+          <t>Payer: History, Overview, ACA and Services</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -5718,22 +5718,22 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Samwel Gitundu</t>
+          <t>Priyanshi Patel</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Week 9 (10/30)</t>
+          <t>Week 5 (10/2)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>10/30</t>
+          <t>10/2</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Mental, Behavioral Health &amp; Substance Abuse</t>
+          <t>Payer: Medicare and Medicaid</t>
         </is>
       </c>
       <c r="E177" t="n">
@@ -5741,33 +5741,33 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Excused</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Srinidhi Rajaraman</t>
+          <t>Priyanshi Patel</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Week 1 (9/4)</t>
+          <t>Week 6 (10/9)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>9/4</t>
+          <t>10/9</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>U.S. Healthcare Ecosystem Overview and History</t>
+          <t>Provider: History, Types and Challenges</t>
         </is>
       </c>
       <c r="E178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -5778,22 +5778,22 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Srinidhi Rajaraman</t>
+          <t>Priyanshi Patel</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Week 10 (11/6)</t>
+          <t>Week 7 (10/16)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>11/6</t>
+          <t>10/16</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Medicalization, Life Sciences and Alternative Medicine</t>
+          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
         </is>
       </c>
       <c r="E179" t="n">
@@ -5808,22 +5808,22 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Srinidhi Rajaraman</t>
+          <t>Priyanshi Patel</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Week 11 (11/13)</t>
+          <t>Week 8 (10/23)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>11/13</t>
+          <t>10/23</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Healthcare Around the World, Fixing Healthcare</t>
+          <t>Government: Policies and regulations, Social Determinants of Health</t>
         </is>
       </c>
       <c r="E180" t="n">
@@ -5838,22 +5838,22 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Srinidhi Rajaraman</t>
+          <t>Priyanshi Patel</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Week 2 (9/11)</t>
+          <t>Week 9 (10/30)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>9/11</t>
+          <t>10/30</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
+          <t>Mental, Behavioral Health &amp; Substance Abuse</t>
         </is>
       </c>
       <c r="E181" t="n">
@@ -5861,29 +5861,29 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Srinidhi Rajaraman</t>
+          <t>Samwel Gitundu</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Week 3 (9/18)</t>
+          <t>Week 1 (9/4)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>9/18</t>
+          <t>9/4</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
+          <t>U.S. Healthcare Ecosystem Overview and History</t>
         </is>
       </c>
       <c r="E182" t="n">
@@ -5891,33 +5891,33 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Excused</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Srinidhi Rajaraman</t>
+          <t>Samwel Gitundu</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Week 4 (9/25)</t>
+          <t>Week 10 (11/6)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>9/25</t>
+          <t>11/6</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Payer: History, Overview, ACA and Services</t>
+          <t>Medicalization, Life Sciences and Alternative Medicine</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
@@ -5928,26 +5928,26 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Srinidhi Rajaraman</t>
+          <t>Samwel Gitundu</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Week 5 (10/2)</t>
+          <t>Week 11 (11/13)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>10/2</t>
+          <t>11/13</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Payer: Medicare and Medicaid</t>
+          <t>Healthcare Around the World, Fixing Healthcare</t>
         </is>
       </c>
       <c r="E184" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
@@ -5958,26 +5958,26 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Srinidhi Rajaraman</t>
+          <t>Samwel Gitundu</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Week 6 (10/9)</t>
+          <t>Week 12 (12/20)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>10/9</t>
+          <t>12/20</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Provider: History, Types and Challenges</t>
+          <t>Healthcare Technology, Innovation and Fixing Healthcare</t>
         </is>
       </c>
       <c r="E185" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
@@ -5988,56 +5988,56 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Srinidhi Rajaraman</t>
+          <t>Samwel Gitundu</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Week 7 (10/16)</t>
+          <t>Week 2 (9/11)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>10/16</t>
+          <t>9/11</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
+          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
         </is>
       </c>
       <c r="E186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Excused</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Srinidhi Rajaraman</t>
+          <t>Samwel Gitundu</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Week 8 (10/23)</t>
+          <t>Week 3 (9/18)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>10/23</t>
+          <t>9/18</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Government: Policies and regulations, Social Determinants of Health</t>
+          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
         </is>
       </c>
       <c r="E187" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
@@ -6048,26 +6048,26 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Srinidhi Rajaraman</t>
+          <t>Samwel Gitundu</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Week 9 (10/30)</t>
+          <t>Week 4 (9/25)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>10/30</t>
+          <t>9/25</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Mental, Behavioral Health &amp; Substance Abuse</t>
+          <t>Payer: History, Overview, ACA and Services</t>
         </is>
       </c>
       <c r="E188" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
@@ -6078,26 +6078,26 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Srishti Michael</t>
+          <t>Samwel Gitundu</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Week 1 (9/4)</t>
+          <t>Week 5 (10/2)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>9/4</t>
+          <t>10/2</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>U.S. Healthcare Ecosystem Overview and History</t>
+          <t>Payer: Medicare and Medicaid</t>
         </is>
       </c>
       <c r="E189" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
@@ -6108,26 +6108,26 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Srishti Michael</t>
+          <t>Samwel Gitundu</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Week 10 (11/6)</t>
+          <t>Week 6 (10/9)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>11/6</t>
+          <t>10/9</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Medicalization, Life Sciences and Alternative Medicine</t>
+          <t>Provider: History, Types and Challenges</t>
         </is>
       </c>
       <c r="E190" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
@@ -6138,26 +6138,26 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Srishti Michael</t>
+          <t>Samwel Gitundu</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Week 11 (11/13)</t>
+          <t>Week 7 (10/16)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>11/13</t>
+          <t>10/16</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Healthcare Around the World, Fixing Healthcare</t>
+          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
         </is>
       </c>
       <c r="E191" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
@@ -6168,22 +6168,22 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Srishti Michael</t>
+          <t>Samwel Gitundu</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Week 2 (9/11)</t>
+          <t>Week 8 (10/23)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>9/11</t>
+          <t>10/23</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
+          <t>Government: Policies and regulations, Social Determinants of Health</t>
         </is>
       </c>
       <c r="E192" t="n">
@@ -6198,22 +6198,22 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Srishti Michael</t>
+          <t>Samwel Gitundu</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Week 3 (9/18)</t>
+          <t>Week 9 (10/30)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>9/18</t>
+          <t>10/30</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
+          <t>Mental, Behavioral Health &amp; Substance Abuse</t>
         </is>
       </c>
       <c r="E193" t="n">
@@ -6228,26 +6228,26 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Srishti Michael</t>
+          <t>Srinidhi Rajaraman</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Week 4 (9/25)</t>
+          <t>Week 1 (9/4)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>9/25</t>
+          <t>9/4</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Payer: History, Overview, ACA and Services</t>
+          <t>U.S. Healthcare Ecosystem Overview and History</t>
         </is>
       </c>
       <c r="E194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
@@ -6258,22 +6258,22 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Srishti Michael</t>
+          <t>Srinidhi Rajaraman</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Week 5 (10/2)</t>
+          <t>Week 10 (11/6)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>10/2</t>
+          <t>11/6</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Payer: Medicare and Medicaid</t>
+          <t>Medicalization, Life Sciences and Alternative Medicine</t>
         </is>
       </c>
       <c r="E195" t="n">
@@ -6288,26 +6288,26 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Srishti Michael</t>
+          <t>Srinidhi Rajaraman</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Week 6 (10/9)</t>
+          <t>Week 11 (11/13)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>10/9</t>
+          <t>11/13</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Provider: History, Types and Challenges</t>
+          <t>Healthcare Around the World, Fixing Healthcare</t>
         </is>
       </c>
       <c r="E196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
@@ -6318,26 +6318,26 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Srishti Michael</t>
+          <t>Srinidhi Rajaraman</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Week 7 (10/16)</t>
+          <t>Week 12 (12/20)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>10/16</t>
+          <t>12/20</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
+          <t>Healthcare Technology, Innovation and Fixing Healthcare</t>
         </is>
       </c>
       <c r="E197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
@@ -6348,22 +6348,22 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Srishti Michael</t>
+          <t>Srinidhi Rajaraman</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Week 8 (10/23)</t>
+          <t>Week 2 (9/11)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>10/23</t>
+          <t>9/11</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Government: Policies and regulations, Social Determinants of Health</t>
+          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
         </is>
       </c>
       <c r="E198" t="n">
@@ -6371,33 +6371,33 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Srishti Michael</t>
+          <t>Srinidhi Rajaraman</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Week 9 (10/30)</t>
+          <t>Week 3 (9/18)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>10/30</t>
+          <t>9/18</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Mental, Behavioral Health &amp; Substance Abuse</t>
+          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
         </is>
       </c>
       <c r="E199" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
@@ -6408,22 +6408,22 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Varsha Murli Chhabria</t>
+          <t>Srinidhi Rajaraman</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Week 1 (9/4)</t>
+          <t>Week 4 (9/25)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>9/4</t>
+          <t>9/25</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>U.S. Healthcare Ecosystem Overview and History</t>
+          <t>Payer: History, Overview, ACA and Services</t>
         </is>
       </c>
       <c r="E200" t="n">
@@ -6438,26 +6438,26 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Varsha Murli Chhabria</t>
+          <t>Srinidhi Rajaraman</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Week 10 (11/6)</t>
+          <t>Week 5 (10/2)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>11/6</t>
+          <t>10/2</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Medicalization, Life Sciences and Alternative Medicine</t>
+          <t>Payer: Medicare and Medicaid</t>
         </is>
       </c>
       <c r="E201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
@@ -6468,26 +6468,26 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Varsha Murli Chhabria</t>
+          <t>Srinidhi Rajaraman</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Week 11 (11/13)</t>
+          <t>Week 6 (10/9)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>11/13</t>
+          <t>10/9</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Healthcare Around the World, Fixing Healthcare</t>
+          <t>Provider: History, Types and Challenges</t>
         </is>
       </c>
       <c r="E202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
@@ -6498,26 +6498,26 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Varsha Murli Chhabria</t>
+          <t>Srinidhi Rajaraman</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Week 2 (9/11)</t>
+          <t>Week 7 (10/16)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>9/11</t>
+          <t>10/16</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
+          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
         </is>
       </c>
       <c r="E203" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
@@ -6528,26 +6528,26 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Varsha Murli Chhabria</t>
+          <t>Srinidhi Rajaraman</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Week 3 (9/18)</t>
+          <t>Week 8 (10/23)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>9/18</t>
+          <t>10/23</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
+          <t>Government: Policies and regulations, Social Determinants of Health</t>
         </is>
       </c>
       <c r="E204" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
@@ -6558,26 +6558,26 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Varsha Murli Chhabria</t>
+          <t>Srinidhi Rajaraman</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Week 4 (9/25)</t>
+          <t>Week 9 (10/30)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>9/25</t>
+          <t>10/30</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Payer: History, Overview, ACA and Services</t>
+          <t>Mental, Behavioral Health &amp; Substance Abuse</t>
         </is>
       </c>
       <c r="E205" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
@@ -6588,26 +6588,26 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Varsha Murli Chhabria</t>
+          <t>Srishti Michael</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Week 5 (10/2)</t>
+          <t>Week 1 (9/4)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>10/2</t>
+          <t>9/4</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Payer: Medicare and Medicaid</t>
+          <t>U.S. Healthcare Ecosystem Overview and History</t>
         </is>
       </c>
       <c r="E206" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
@@ -6618,26 +6618,26 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Varsha Murli Chhabria</t>
+          <t>Srishti Michael</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Week 6 (10/9)</t>
+          <t>Week 10 (11/6)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>10/9</t>
+          <t>11/6</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Provider: History, Types and Challenges</t>
+          <t>Medicalization, Life Sciences and Alternative Medicine</t>
         </is>
       </c>
       <c r="E207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
@@ -6648,26 +6648,26 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Varsha Murli Chhabria</t>
+          <t>Srishti Michael</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Week 7 (10/16)</t>
+          <t>Week 11 (11/13)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>10/16</t>
+          <t>11/13</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
+          <t>Healthcare Around the World, Fixing Healthcare</t>
         </is>
       </c>
       <c r="E208" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F208" t="inlineStr">
         <is>
@@ -6678,26 +6678,26 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Varsha Murli Chhabria</t>
+          <t>Srishti Michael</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Week 8 (10/23)</t>
+          <t>Week 12 (12/20)</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>10/23</t>
+          <t>12/20</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Government: Policies and regulations, Social Determinants of Health</t>
+          <t>Healthcare Technology, Innovation and Fixing Healthcare</t>
         </is>
       </c>
       <c r="E209" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
@@ -6708,26 +6708,26 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Varsha Murli Chhabria</t>
+          <t>Srishti Michael</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Week 9 (10/30)</t>
+          <t>Week 2 (9/11)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>10/30</t>
+          <t>9/11</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Mental, Behavioral Health &amp; Substance Abuse</t>
+          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
         </is>
       </c>
       <c r="E210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F210" t="inlineStr">
         <is>
@@ -6738,26 +6738,26 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Wesley Tey</t>
+          <t>Srishti Michael</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Week 1 (9/4)</t>
+          <t>Week 3 (9/18)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>9/4</t>
+          <t>9/18</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>U.S. Healthcare Ecosystem Overview and History</t>
+          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
         </is>
       </c>
       <c r="E211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F211" t="inlineStr">
         <is>
@@ -6768,26 +6768,26 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Wesley Tey</t>
+          <t>Srishti Michael</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Week 10 (11/6)</t>
+          <t>Week 4 (9/25)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>11/6</t>
+          <t>9/25</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Medicalization, Life Sciences and Alternative Medicine</t>
+          <t>Payer: History, Overview, ACA and Services</t>
         </is>
       </c>
       <c r="E212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F212" t="inlineStr">
         <is>
@@ -6798,26 +6798,26 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Wesley Tey</t>
+          <t>Srishti Michael</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Week 11 (11/13)</t>
+          <t>Week 5 (10/2)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>11/13</t>
+          <t>10/2</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Healthcare Around the World, Fixing Healthcare</t>
+          <t>Payer: Medicare and Medicaid</t>
         </is>
       </c>
       <c r="E213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
@@ -6828,26 +6828,26 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Wesley Tey</t>
+          <t>Srishti Michael</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Week 2 (9/11)</t>
+          <t>Week 6 (10/9)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>9/11</t>
+          <t>10/9</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
+          <t>Provider: History, Types and Challenges</t>
         </is>
       </c>
       <c r="E214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
@@ -6858,26 +6858,26 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Wesley Tey</t>
+          <t>Srishti Michael</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Week 3 (9/18)</t>
+          <t>Week 7 (10/16)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>9/18</t>
+          <t>10/16</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
+          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
         </is>
       </c>
       <c r="E215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
@@ -6888,22 +6888,22 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Wesley Tey</t>
+          <t>Srishti Michael</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Week 4 (9/25)</t>
+          <t>Week 8 (10/23)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>9/25</t>
+          <t>10/23</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Payer: History, Overview, ACA and Services</t>
+          <t>Government: Policies and regulations, Social Determinants of Health</t>
         </is>
       </c>
       <c r="E216" t="n">
@@ -6918,26 +6918,26 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Wesley Tey</t>
+          <t>Srishti Michael</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Week 5 (10/2)</t>
+          <t>Week 9 (10/30)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>10/2</t>
+          <t>10/30</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Payer: Medicare and Medicaid</t>
+          <t>Mental, Behavioral Health &amp; Substance Abuse</t>
         </is>
       </c>
       <c r="E217" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
@@ -6948,26 +6948,26 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Wesley Tey</t>
+          <t>Varsha Murli Chhabria</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Week 6 (10/9)</t>
+          <t>Week 1 (9/4)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>10/9</t>
+          <t>9/4</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Provider: History, Types and Challenges</t>
+          <t>U.S. Healthcare Ecosystem Overview and History</t>
         </is>
       </c>
       <c r="E218" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
@@ -6978,22 +6978,22 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Wesley Tey</t>
+          <t>Varsha Murli Chhabria</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Week 7 (10/16)</t>
+          <t>Week 10 (11/6)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>10/16</t>
+          <t>11/6</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
+          <t>Medicalization, Life Sciences and Alternative Medicine</t>
         </is>
       </c>
       <c r="E219" t="n">
@@ -7008,26 +7008,26 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Wesley Tey</t>
+          <t>Varsha Murli Chhabria</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Week 8 (10/23)</t>
+          <t>Week 11 (11/13)</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>10/23</t>
+          <t>11/13</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Government: Policies and regulations, Social Determinants of Health</t>
+          <t>Healthcare Around the World, Fixing Healthcare</t>
         </is>
       </c>
       <c r="E220" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
@@ -7038,28 +7038,628 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Wesley Tey</t>
+          <t>Varsha Murli Chhabria</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Week 9 (10/30)</t>
+          <t>Week 12 (12/20)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>10/30</t>
+          <t>12/20</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Mental, Behavioral Health &amp; Substance Abuse</t>
+          <t>Healthcare Technology, Innovation and Fixing Healthcare</t>
         </is>
       </c>
       <c r="E221" t="n">
         <v>1</v>
       </c>
       <c r="F221" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Varsha Murli Chhabria</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Week 2 (9/11)</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>9/11</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
+        </is>
+      </c>
+      <c r="E222" t="n">
+        <v>1</v>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Varsha Murli Chhabria</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Week 3 (9/18)</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>9/18</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
+        </is>
+      </c>
+      <c r="E223" t="n">
+        <v>1</v>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Varsha Murli Chhabria</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Week 4 (9/25)</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>9/25</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>Payer: History, Overview, ACA and Services</t>
+        </is>
+      </c>
+      <c r="E224" t="n">
+        <v>0</v>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Varsha Murli Chhabria</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Week 5 (10/2)</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>10/2</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>Payer: Medicare and Medicaid</t>
+        </is>
+      </c>
+      <c r="E225" t="n">
+        <v>3</v>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Varsha Murli Chhabria</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Week 6 (10/9)</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>10/9</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>Provider: History, Types and Challenges</t>
+        </is>
+      </c>
+      <c r="E226" t="n">
+        <v>0</v>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Varsha Murli Chhabria</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Week 7 (10/16)</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>10/16</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
+        </is>
+      </c>
+      <c r="E227" t="n">
+        <v>2</v>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Varsha Murli Chhabria</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Week 8 (10/23)</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>10/23</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>Government: Policies and regulations, Social Determinants of Health</t>
+        </is>
+      </c>
+      <c r="E228" t="n">
+        <v>1</v>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Varsha Murli Chhabria</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Week 9 (10/30)</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>10/30</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>Mental, Behavioral Health &amp; Substance Abuse</t>
+        </is>
+      </c>
+      <c r="E229" t="n">
+        <v>1</v>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Wesley Tey</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Week 1 (9/4)</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>9/4</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>U.S. Healthcare Ecosystem Overview and History</t>
+        </is>
+      </c>
+      <c r="E230" t="n">
+        <v>2</v>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Wesley Tey</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Week 10 (11/6)</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>11/6</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>Medicalization, Life Sciences and Alternative Medicine</t>
+        </is>
+      </c>
+      <c r="E231" t="n">
+        <v>1</v>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Wesley Tey</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Week 11 (11/13)</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>11/13</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>Healthcare Around the World, Fixing Healthcare</t>
+        </is>
+      </c>
+      <c r="E232" t="n">
+        <v>1</v>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Wesley Tey</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Week 12 (12/20)</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>12/20</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>Healthcare Technology, Innovation and Fixing Healthcare</t>
+        </is>
+      </c>
+      <c r="E233" t="n">
+        <v>2</v>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Wesley Tey</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Week 2 (9/11)</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>9/11</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>Patient: Experience, Responsibility, and Paying for Healthcare</t>
+        </is>
+      </c>
+      <c r="E234" t="n">
+        <v>1</v>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Wesley Tey</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Week 3 (9/18)</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>9/18</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>Patient: Care Delivery – Where, Why, Impact and Challenges</t>
+        </is>
+      </c>
+      <c r="E235" t="n">
+        <v>1</v>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Wesley Tey</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Week 4 (9/25)</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>9/25</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>Payer: History, Overview, ACA and Services</t>
+        </is>
+      </c>
+      <c r="E236" t="n">
+        <v>0</v>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Wesley Tey</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Week 5 (10/2)</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>10/2</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>Payer: Medicare and Medicaid</t>
+        </is>
+      </c>
+      <c r="E237" t="n">
+        <v>0</v>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Wesley Tey</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Week 6 (10/9)</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>10/9</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>Provider: History, Types and Challenges</t>
+        </is>
+      </c>
+      <c r="E238" t="n">
+        <v>4</v>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Wesley Tey</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Week 7 (10/16)</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>10/16</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>Provider: Compensation, Education, Burn-out and Satisfaction</t>
+        </is>
+      </c>
+      <c r="E239" t="n">
+        <v>2</v>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Wesley Tey</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Week 8 (10/23)</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>10/23</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>Government: Policies and regulations, Social Determinants of Health</t>
+        </is>
+      </c>
+      <c r="E240" t="n">
+        <v>2</v>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Wesley Tey</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Week 9 (10/30)</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>10/30</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>Mental, Behavioral Health &amp; Substance Abuse</t>
+        </is>
+      </c>
+      <c r="E241" t="n">
+        <v>1</v>
+      </c>
+      <c r="F241" t="inlineStr">
         <is>
           <t>Present</t>
         </is>

--- a/American_Healthcare_Class_Cleaned.xlsx
+++ b/American_Healthcare_Class_Cleaned.xlsx
@@ -563,12 +563,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Week 12 (12/20)</t>
+          <t>Week 12 (11/20)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>12/20</t>
+          <t>11/20</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -923,12 +923,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Week 12 (12/20)</t>
+          <t>Week 12 (11/20)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>12/20</t>
+          <t>11/20</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1283,12 +1283,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Week 12 (12/20)</t>
+          <t>Week 12 (11/20)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>12/20</t>
+          <t>11/20</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1643,12 +1643,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Week 12 (12/20)</t>
+          <t>Week 12 (11/20)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>12/20</t>
+          <t>11/20</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2003,12 +2003,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Week 12 (12/20)</t>
+          <t>Week 12 (11/20)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>12/20</t>
+          <t>11/20</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2363,12 +2363,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Week 12 (12/20)</t>
+          <t>Week 12 (11/20)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>12/20</t>
+          <t>11/20</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2723,12 +2723,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Week 12 (12/20)</t>
+          <t>Week 12 (11/20)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>12/20</t>
+          <t>11/20</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3083,12 +3083,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Week 12 (12/20)</t>
+          <t>Week 12 (11/20)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>12/20</t>
+          <t>11/20</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3443,12 +3443,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Week 12 (12/20)</t>
+          <t>Week 12 (11/20)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>12/20</t>
+          <t>11/20</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3803,12 +3803,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Week 12 (12/20)</t>
+          <t>Week 12 (11/20)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>12/20</t>
+          <t>11/20</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -4163,12 +4163,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Week 12 (12/20)</t>
+          <t>Week 12 (11/20)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>12/20</t>
+          <t>11/20</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -4523,12 +4523,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Week 12 (12/20)</t>
+          <t>Week 12 (11/20)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>12/20</t>
+          <t>11/20</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4883,12 +4883,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Week 12 (12/20)</t>
+          <t>Week 12 (11/20)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>12/20</t>
+          <t>11/20</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -5243,12 +5243,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Week 12 (12/20)</t>
+          <t>Week 12 (11/20)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>12/20</t>
+          <t>11/20</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -5603,12 +5603,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Week 12 (12/20)</t>
+          <t>Week 12 (11/20)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>12/20</t>
+          <t>11/20</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -5963,12 +5963,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Week 12 (12/20)</t>
+          <t>Week 12 (11/20)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>12/20</t>
+          <t>11/20</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -6323,12 +6323,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Week 12 (12/20)</t>
+          <t>Week 12 (11/20)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>12/20</t>
+          <t>11/20</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -6683,12 +6683,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Week 12 (12/20)</t>
+          <t>Week 12 (11/20)</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>12/20</t>
+          <t>11/20</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -7043,12 +7043,12 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Week 12 (12/20)</t>
+          <t>Week 12 (11/20)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>12/20</t>
+          <t>11/20</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -7403,12 +7403,12 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Week 12 (12/20)</t>
+          <t>Week 12 (11/20)</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>12/20</t>
+          <t>11/20</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">

--- a/American_Healthcare_Class_Cleaned.xlsx
+++ b/American_Healthcare_Class_Cleaned.xlsx
@@ -1211,7 +1211,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Excused</t>
         </is>
       </c>
     </row>
@@ -1331,7 +1331,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Excused</t>
         </is>
       </c>
     </row>
@@ -1361,7 +1361,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Excused</t>
         </is>
       </c>
     </row>
